--- a/src/result_print.xlsx
+++ b/src/result_print.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kosenjp-my.sharepoint.com/personal/ac224608_edu_okinawa-ct_ac_jp/Documents/ドキュメント/Satellite/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{9524B2C7-C3C6-45BD-B987-F47742EC3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBEBB5CA-E8A9-4D26-B13F-89282D75BF5C}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{9524B2C7-C3C6-45BD-B987-F47742EC3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B487D3F8-0F4B-4895-8FD4-FF732A8CD723}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_print" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,22 +44,13 @@
     <t>beam_num</t>
   </si>
   <si>
+    <t>band</t>
+  </si>
+  <si>
     <t>power[W]</t>
   </si>
   <si>
     <t>bandwidth[Hz]</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>beam_radius</t>
-  </si>
-  <si>
-    <t>band</t>
   </si>
   <si>
     <t>beam_cni_db[dB]</t>
@@ -68,7 +62,16 @@
     <t>bitrate[beam_bps]</t>
   </si>
   <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>sat_radius</t>
+  </si>
+  <si>
+    <t>beam_radius</t>
   </si>
   <si>
     <t>user</t>
@@ -727,9 +730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,7 +770,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,7 +1018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1047,34 +1050,34 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B2">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1091,39 +1094,39 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F2">
         <v>11666666.666666601</v>
       </c>
       <c r="G2">
-        <v>6.22669813609751</v>
+        <v>2.6483780488167699</v>
       </c>
       <c r="H2">
-        <v>1.7954975238556401</v>
+        <v>1.0157815768371701</v>
       </c>
       <c r="I2">
-        <v>20947471.1116492</v>
+        <v>11850785.063100301</v>
       </c>
       <c r="J2">
-        <v>45.706166670000002</v>
+        <v>22.50449047</v>
       </c>
       <c r="K2">
-        <v>141.7511111</v>
+        <v>122</v>
       </c>
       <c r="L2">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>256.40476452455101</v>
+        <v>43.580177015251998</v>
       </c>
       <c r="N2">
-        <v>247196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1132,39 +1135,39 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F3">
         <v>11666666.666666601</v>
       </c>
       <c r="G3">
-        <v>10.6640810819575</v>
+        <v>2.5563101583847598</v>
       </c>
       <c r="H3">
-        <v>2.7624032677585402</v>
+        <v>0.99571998351204005</v>
       </c>
       <c r="I3">
-        <v>32228038.123849601</v>
+        <v>11616733.140973801</v>
       </c>
       <c r="J3">
-        <v>44.00072222</v>
+        <v>22.859040749999998</v>
       </c>
       <c r="K3">
-        <v>144.4592222</v>
+        <v>122.6</v>
       </c>
       <c r="L3">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>255.96250794175899</v>
+        <v>43.978405077252802</v>
       </c>
       <c r="N3">
-        <v>772712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1173,39 +1176,39 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F4">
         <v>11666666.666666601</v>
       </c>
       <c r="G4">
-        <v>7.5587629304453303</v>
+        <v>2.5349747181449001</v>
       </c>
       <c r="H4">
-        <v>2.08575444254403</v>
+        <v>0.99107099108377295</v>
       </c>
       <c r="I4">
-        <v>24333801.829680402</v>
+        <v>11562494.8959773</v>
       </c>
       <c r="J4">
-        <v>42.585444440000003</v>
+        <v>23.21359103</v>
       </c>
       <c r="K4">
-        <v>140.57005559999999</v>
+        <v>123.2</v>
       </c>
       <c r="L4">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>256.15881883889398</v>
+        <v>44.524988226970201</v>
       </c>
       <c r="N4">
-        <v>2273124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1214,39 +1217,39 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F5">
         <v>11666666.666666601</v>
       </c>
       <c r="G5">
-        <v>7.1534377847178803</v>
+        <v>2.5968908628865299</v>
       </c>
       <c r="H5">
-        <v>1.9974340932900201</v>
+        <v>1.0045625190229699</v>
       </c>
       <c r="I5">
-        <v>23303397.755050302</v>
+        <v>11719896.055268001</v>
       </c>
       <c r="J5">
-        <v>41.861388890000001</v>
+        <v>23.568141310000001</v>
       </c>
       <c r="K5">
-        <v>142.4926667</v>
+        <v>123.8</v>
       </c>
       <c r="L5">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>256.140800000784</v>
+        <v>45.121449801935398</v>
       </c>
       <c r="N5">
-        <v>2549561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1255,39 +1258,39 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F6">
         <v>11666666.666666601</v>
       </c>
       <c r="G6">
-        <v>8.0412212058561305</v>
+        <v>2.5881657718597202</v>
       </c>
       <c r="H6">
-        <v>2.1908821007560499</v>
+        <v>1.0026613216882301</v>
       </c>
       <c r="I6">
-        <v>25560291.175487202</v>
+        <v>11697715.419695999</v>
       </c>
       <c r="J6">
-        <v>40.246000000000002</v>
+        <v>23.922691589999999</v>
       </c>
       <c r="K6">
-        <v>139.11986110000001</v>
+        <v>124.4</v>
       </c>
       <c r="L6">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>256.27894700246497</v>
+        <v>44.8650837396005</v>
       </c>
       <c r="N6">
-        <v>2013435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1296,39 +1299,39 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F7">
         <v>11666666.666666601</v>
       </c>
       <c r="G7">
-        <v>6.4347498918698101</v>
+        <v>2.56805864564789</v>
       </c>
       <c r="H7">
-        <v>1.8408320014384301</v>
+        <v>0.99827997888667497</v>
       </c>
       <c r="I7">
-        <v>21476373.350115001</v>
+        <v>11646599.7536778</v>
       </c>
       <c r="J7">
-        <v>39.010638890000003</v>
+        <v>24.277241879999998</v>
       </c>
       <c r="K7">
-        <v>142.16308330000001</v>
+        <v>125</v>
       </c>
       <c r="L7">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>256.23749154028599</v>
+        <v>42.9780536486156</v>
       </c>
       <c r="N7">
-        <v>3184930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1337,39 +1340,39 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F8">
         <v>11666666.666666601</v>
       </c>
       <c r="G8">
-        <v>6.0569835077638103</v>
+        <v>2.5554732492536201</v>
       </c>
       <c r="H8">
-        <v>1.75851670634173</v>
+        <v>0.99553762101236498</v>
       </c>
       <c r="I8">
-        <v>20516028.2406535</v>
+        <v>11614605.5784775</v>
       </c>
       <c r="J8">
-        <v>37.918194440000001</v>
+        <v>24.63179216</v>
       </c>
       <c r="K8">
-        <v>138.03222220000001</v>
+        <v>125.6</v>
       </c>
       <c r="L8">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>255.825043779639</v>
+        <v>43.856036096379398</v>
       </c>
       <c r="N8">
-        <v>5982108</v>
+        <v>26466</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1378,39 +1381,39 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F9">
         <v>11666666.666666601</v>
       </c>
       <c r="G9">
-        <v>6.7822082335617697</v>
+        <v>2.4728308771359599</v>
       </c>
       <c r="H9">
-        <v>1.91654317409311</v>
+        <v>0.97752984812792698</v>
       </c>
       <c r="I9">
-        <v>22359670.364419602</v>
+        <v>11404514.894825799</v>
       </c>
       <c r="J9">
-        <v>36.164499999999997</v>
+        <v>24.986342440000001</v>
       </c>
       <c r="K9">
-        <v>140.75683330000001</v>
+        <v>126.2</v>
       </c>
       <c r="L9">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>256.52144844042698</v>
+        <v>42.284458799888498</v>
       </c>
       <c r="N9">
-        <v>24033575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1419,39 +1422,39 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F10">
         <v>11666666.666666601</v>
       </c>
       <c r="G10">
-        <v>6.4921657080109503</v>
+        <v>2.4608804053508302</v>
       </c>
       <c r="H10">
-        <v>1.8533429077755801</v>
+        <v>0.97492584032594598</v>
       </c>
       <c r="I10">
-        <v>21622333.924048498</v>
+        <v>11374134.803802701</v>
       </c>
       <c r="J10">
-        <v>35.31736111</v>
+        <v>25.340892719999999</v>
       </c>
       <c r="K10">
-        <v>138.3618056</v>
+        <v>126.8</v>
       </c>
       <c r="L10">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>256.18719647185497</v>
+        <v>43.811610890678502</v>
       </c>
       <c r="N10">
-        <v>29566829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1460,39 +1463,39 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F11">
         <v>11666666.666666601</v>
       </c>
       <c r="G11">
-        <v>3.07816028119221</v>
+        <v>2.6672181097283398</v>
       </c>
       <c r="H11">
-        <v>1.1094311252717799</v>
+        <v>1.0198868261098</v>
       </c>
       <c r="I11">
-        <v>12943363.128170799</v>
+        <v>11898679.637947701</v>
       </c>
       <c r="J11">
-        <v>33.458638890000003</v>
+        <v>25.695443000000001</v>
       </c>
       <c r="K11">
-        <v>135.5406667</v>
+        <v>127.4</v>
       </c>
       <c r="L11">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>256.46579721447</v>
+        <v>39.657151811932302</v>
       </c>
       <c r="N11">
-        <v>14676868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1501,39 +1504,39 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F12">
         <v>11666666.666666601</v>
       </c>
       <c r="G12">
-        <v>5.8814547621041502</v>
+        <v>2.4855761033722801</v>
       </c>
       <c r="H12">
-        <v>1.7202689926624899</v>
+        <v>0.98030703292482102</v>
       </c>
       <c r="I12">
-        <v>20069804.914395701</v>
+        <v>11436915.384122901</v>
       </c>
       <c r="J12">
-        <v>36.270861109999998</v>
+        <v>26.049993279999999</v>
       </c>
       <c r="K12">
-        <v>135.61522220000001</v>
+        <v>128</v>
       </c>
       <c r="L12">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>256.39183211340998</v>
+        <v>43.978531364443903</v>
       </c>
       <c r="N12">
-        <v>15396895</v>
+        <v>941546</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B13">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1542,39 +1545,39 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F13">
         <v>11666666.666666601</v>
       </c>
       <c r="G13">
-        <v>6.0743425292792397</v>
+        <v>2.4845773855309501</v>
       </c>
       <c r="H13">
-        <v>1.76229923712994</v>
+        <v>0.98008941230719504</v>
       </c>
       <c r="I13">
-        <v>20560157.766516</v>
+        <v>11434376.4769172</v>
       </c>
       <c r="J13">
-        <v>35.200749999999999</v>
+        <v>26.40454356</v>
       </c>
       <c r="K13">
-        <v>132.4182222</v>
+        <v>128.6</v>
       </c>
       <c r="L13">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>256.48488906086402</v>
+        <v>43.372489780048099</v>
       </c>
       <c r="N13">
-        <v>6873190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B14">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1583,39 +1586,39 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F14">
         <v>11666666.666666601</v>
       </c>
       <c r="G14">
-        <v>6.32086367121107</v>
+        <v>2.56275177143046</v>
       </c>
       <c r="H14">
-        <v>1.81601619395689</v>
+        <v>0.99712361099469904</v>
       </c>
       <c r="I14">
-        <v>21186855.596163701</v>
+        <v>11633108.794938101</v>
       </c>
       <c r="J14">
-        <v>34.669361109999997</v>
+        <v>26.759093839999998</v>
       </c>
       <c r="K14">
-        <v>129.64966670000001</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="L14">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>255.409000934538</v>
+        <v>43.953833212048899</v>
       </c>
       <c r="N14">
-        <v>3758942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1624,39 +1627,39 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F15">
         <v>11666666.666666601</v>
       </c>
       <c r="G15">
-        <v>8.1656130225924404</v>
+        <v>2.5398471216202001</v>
       </c>
       <c r="H15">
-        <v>2.2179870776228898</v>
+        <v>0.99213268780104302</v>
       </c>
       <c r="I15">
-        <v>25876515.905600399</v>
+        <v>11574881.357678801</v>
       </c>
       <c r="J15">
-        <v>32.500500000000002</v>
+        <v>27.11364412</v>
       </c>
       <c r="K15">
-        <v>132.40722220000001</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="L15">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>256.49494529813597</v>
+        <v>44.5251683350143</v>
       </c>
       <c r="N15">
-        <v>6878248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1665,39 +1668,39 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F16">
         <v>11666666.666666601</v>
       </c>
       <c r="G16">
-        <v>7.8733416537677599</v>
+        <v>2.4553099091723301</v>
       </c>
       <c r="H16">
-        <v>2.1543011463559898</v>
+        <v>0.97371202920865096</v>
       </c>
       <c r="I16">
-        <v>25133513.374153201</v>
+        <v>11359973.6741009</v>
       </c>
       <c r="J16">
-        <v>31.400527780000001</v>
+        <v>27.468194400000002</v>
       </c>
       <c r="K16">
-        <v>129.6331667</v>
+        <v>130.4</v>
       </c>
       <c r="L16">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>255.91331960031599</v>
+        <v>43.022656273498697</v>
       </c>
       <c r="N16">
-        <v>3197011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1706,121 +1709,121 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F17">
         <v>11666666.666666601</v>
       </c>
       <c r="G17">
-        <v>5.7966850997348702</v>
+        <v>2.4392005915779702</v>
       </c>
       <c r="H17">
-        <v>1.7017976832322199</v>
+        <v>0.97020180890484098</v>
       </c>
       <c r="I17">
-        <v>19854306.304375999</v>
+        <v>11319021.103889801</v>
       </c>
       <c r="J17">
-        <v>29.773916669999998</v>
+        <v>27.82274468</v>
       </c>
       <c r="K17">
-        <v>131.57227779999999</v>
+        <v>131</v>
       </c>
       <c r="L17">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>256.12861165429598</v>
+        <v>43.861438448907101</v>
       </c>
       <c r="N17">
-        <v>729760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F18">
         <v>11666666.666666601</v>
       </c>
       <c r="G18">
-        <v>7.1148231130094803</v>
+        <v>2.5464023776195499</v>
       </c>
       <c r="H18">
-        <v>1.9890199563247599</v>
+        <v>0.99356107808329996</v>
       </c>
       <c r="I18">
-        <v>23205232.8237889</v>
+        <v>11591545.9109718</v>
       </c>
       <c r="J18">
-        <v>39.138583330000003</v>
+        <v>28.177294969999998</v>
       </c>
       <c r="K18">
-        <v>135.7800278</v>
+        <v>131.6</v>
       </c>
       <c r="L18">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>256.321847340663</v>
+        <v>43.860892320516903</v>
       </c>
       <c r="N18">
-        <v>51726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F19">
         <v>11666666.666666601</v>
       </c>
       <c r="G19">
-        <v>5.81814551085193</v>
+        <v>2.55681910881124</v>
       </c>
       <c r="H19">
-        <v>1.70647390681463</v>
+        <v>0.99583088380996898</v>
       </c>
       <c r="I19">
-        <v>19908862.2461707</v>
+        <v>11618026.9777829</v>
       </c>
       <c r="J19">
-        <v>37.909527779999998</v>
+        <v>28.53184525</v>
       </c>
       <c r="K19">
-        <v>132.85766670000001</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="L19">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>256.43571555278999</v>
+        <v>44.334879171574201</v>
       </c>
       <c r="N19">
-        <v>6374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -1829,39 +1832,39 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F20">
         <v>11666666.666666601</v>
       </c>
       <c r="G20">
-        <v>6.4849849003516402</v>
+        <v>2.46411935032042</v>
       </c>
       <c r="H20">
-        <v>1.85177820978662</v>
+        <v>0.97563160643482105</v>
       </c>
       <c r="I20">
-        <v>21604079.114177201</v>
+        <v>11382368.7417395</v>
       </c>
       <c r="J20">
-        <v>33.119138890000002</v>
+        <v>28.886395530000001</v>
       </c>
       <c r="K20">
-        <v>139.6801667</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="L20">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>256.38312927785</v>
+        <v>45.427813092391197</v>
       </c>
       <c r="N20">
-        <v>2251564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -1870,39 +1873,39 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F21">
         <v>11666666.666666601</v>
       </c>
       <c r="G21">
-        <v>6.6703319508702998</v>
+        <v>2.5452193696676901</v>
       </c>
       <c r="H21">
-        <v>1.8921653320946299</v>
+        <v>0.99330330065058903</v>
       </c>
       <c r="I21">
-        <v>22075262.207770701</v>
+        <v>11588538.507590201</v>
       </c>
       <c r="J21">
-        <v>32.222083329999997</v>
+        <v>29.240945809999999</v>
       </c>
       <c r="K21">
-        <v>137.1093889</v>
+        <v>133.4</v>
       </c>
       <c r="L21">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>256.40731641817098</v>
+        <v>44.2082019615208</v>
       </c>
       <c r="N21">
-        <v>181199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -1911,34 +1914,7660 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>0.238095238095238</v>
+        <v>2.4271844660194102E-2</v>
       </c>
       <c r="F22">
         <v>11666666.666666601</v>
       </c>
       <c r="G22">
-        <v>6.9916882770499296</v>
+        <v>2.43517486324351</v>
       </c>
       <c r="H22">
-        <v>1.9621888755691801</v>
+        <v>0.96932460270076204</v>
       </c>
       <c r="I22">
-        <v>22892203.548307098</v>
+        <v>11308787.0315088</v>
       </c>
       <c r="J22">
-        <v>30.892805559999999</v>
+        <v>29.595496090000001</v>
       </c>
       <c r="K22">
-        <v>134.57152780000001</v>
+        <v>134</v>
       </c>
       <c r="L22">
-        <v>8.6</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>256.386166550258</v>
+        <v>44.455211501605397</v>
       </c>
       <c r="N22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F23">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G23">
+        <v>2.3355285897310498</v>
+      </c>
+      <c r="H23">
+        <v>0.94761167970239502</v>
+      </c>
+      <c r="I23">
+        <v>11055469.596527901</v>
+      </c>
+      <c r="J23">
+        <v>29.950046369999999</v>
+      </c>
+      <c r="K23">
+        <v>134.6</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>44.222808232846802</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F24">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G24">
+        <v>2.4128756574542201</v>
+      </c>
+      <c r="H24">
+        <v>0.96446560575927498</v>
+      </c>
+      <c r="I24">
+        <v>11252098.7338582</v>
+      </c>
+      <c r="J24">
+        <v>30.304596650000001</v>
+      </c>
+      <c r="K24">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>43.8349095814065</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F25">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G25">
+        <v>2.3564256005048501</v>
+      </c>
+      <c r="H25">
+        <v>0.95216513835000705</v>
+      </c>
+      <c r="I25">
+        <v>11108593.280750001</v>
+      </c>
+      <c r="J25">
+        <v>30.659146929999999</v>
+      </c>
+      <c r="K25">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>43.9458592895527</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F26">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G26">
+        <v>2.4761094238838699</v>
+      </c>
+      <c r="H26">
+        <v>0.97824424346429595</v>
+      </c>
+      <c r="I26">
+        <v>11412849.507083399</v>
+      </c>
+      <c r="J26">
+        <v>31.01369721</v>
+      </c>
+      <c r="K26">
+        <v>136.4</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>42.3522250187225</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F27">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G27">
+        <v>2.4885782461309902</v>
+      </c>
+      <c r="H27">
+        <v>0.98096119983194396</v>
+      </c>
+      <c r="I27">
+        <v>11444547.3313726</v>
+      </c>
+      <c r="J27">
+        <v>31.368247499999999</v>
+      </c>
+      <c r="K27">
+        <v>137</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>41.981966317932297</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F28">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G28">
+        <v>2.4855655255436502</v>
+      </c>
+      <c r="H28">
+        <v>0.98030472801596302</v>
+      </c>
+      <c r="I28">
+        <v>11436888.4935195</v>
+      </c>
+      <c r="J28">
+        <v>31.722797780000001</v>
+      </c>
+      <c r="K28">
+        <v>137.6</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>42.933589465334499</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F29">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G29">
+        <v>2.4600589088209399</v>
+      </c>
+      <c r="H29">
+        <v>0.97474683623208302</v>
+      </c>
+      <c r="I29">
+        <v>11372046.422707601</v>
+      </c>
+      <c r="J29">
+        <v>32.077348059999998</v>
+      </c>
+      <c r="K29">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>44.411443483273999</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F30">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G30">
+        <v>2.3608478568571698</v>
+      </c>
+      <c r="H30">
+        <v>0.95312874800917902</v>
+      </c>
+      <c r="I30">
+        <v>11119835.393440399</v>
+      </c>
+      <c r="J30">
+        <v>32.431898339999996</v>
+      </c>
+      <c r="K30">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>43.717537897302797</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>500</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F31">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G31">
+        <v>2.3662970298678898</v>
+      </c>
+      <c r="H31">
+        <v>0.95431612280821398</v>
+      </c>
+      <c r="I31">
+        <v>11133688.099429101</v>
+      </c>
+      <c r="J31">
+        <v>32.786448620000002</v>
+      </c>
+      <c r="K31">
+        <v>139.4</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>43.377062246527501</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>500</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F32">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G32">
+        <v>2.3762093166700602</v>
+      </c>
+      <c r="H32">
+        <v>0.95647601010240701</v>
+      </c>
+      <c r="I32">
+        <v>11158886.784528</v>
+      </c>
+      <c r="J32">
+        <v>33.1409989</v>
+      </c>
+      <c r="K32">
+        <v>140</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>44.315452051408101</v>
+      </c>
+      <c r="N32">
+        <v>7042</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F33">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G33">
+        <v>2.57344758478862</v>
+      </c>
+      <c r="H33">
+        <v>0.99945422872543999</v>
+      </c>
+      <c r="I33">
+        <v>11660299.335130099</v>
+      </c>
+      <c r="J33">
+        <v>33.495549179999998</v>
+      </c>
+      <c r="K33">
+        <v>140.6</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <v>43.538682286988397</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F34">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G34">
+        <v>2.5882299742292099</v>
+      </c>
+      <c r="H34">
+        <v>1.0026753113845399</v>
+      </c>
+      <c r="I34">
+        <v>11697878.632819699</v>
+      </c>
+      <c r="J34">
+        <v>33.850099460000003</v>
+      </c>
+      <c r="K34">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>44.634529650991297</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>500</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F35">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G35">
+        <v>2.57823246862442</v>
+      </c>
+      <c r="H35">
+        <v>1.00049685491326</v>
+      </c>
+      <c r="I35">
+        <v>11672463.307321301</v>
+      </c>
+      <c r="J35">
+        <v>34.204649740000001</v>
+      </c>
+      <c r="K35">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>44.818881820819101</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>500</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F36">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G36">
+        <v>2.57714134052017</v>
+      </c>
+      <c r="H36">
+        <v>1.00025909809934</v>
+      </c>
+      <c r="I36">
+        <v>11669689.477825699</v>
+      </c>
+      <c r="J36">
+        <v>34.559200019999999</v>
+      </c>
+      <c r="K36">
+        <v>142.4</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>42.7964282876056</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F37">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G37">
+        <v>2.5746347526473499</v>
+      </c>
+      <c r="H37">
+        <v>0.99971291260185702</v>
+      </c>
+      <c r="I37">
+        <v>11663317.313688301</v>
+      </c>
+      <c r="J37">
+        <v>34.913750309999998</v>
+      </c>
+      <c r="K37">
+        <v>143</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>44.477317645133901</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F38">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G38">
+        <v>2.4921695683235399</v>
+      </c>
+      <c r="H38">
+        <v>0.9817437489377</v>
+      </c>
+      <c r="I38">
+        <v>11453677.0709398</v>
+      </c>
+      <c r="J38">
+        <v>35.268300590000003</v>
+      </c>
+      <c r="K38">
+        <v>143.6</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38">
+        <v>42.918042467352599</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>500</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F39">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G39">
+        <v>2.4944202729520901</v>
+      </c>
+      <c r="H39">
+        <v>0.98223417747626196</v>
+      </c>
+      <c r="I39">
+        <v>11459398.737222999</v>
+      </c>
+      <c r="J39">
+        <v>35.622850870000001</v>
+      </c>
+      <c r="K39">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39">
+        <v>42.963547577698101</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>500</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F40">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G40">
+        <v>2.6042194942935901</v>
+      </c>
+      <c r="H40">
+        <v>1.00615942780657</v>
+      </c>
+      <c r="I40">
+        <v>11738526.657743299</v>
+      </c>
+      <c r="J40">
+        <v>35.977401149999999</v>
+      </c>
+      <c r="K40">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+      <c r="M40">
+        <v>45.062898088394398</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F41">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G41">
+        <v>2.5427828066275699</v>
+      </c>
+      <c r="H41">
+        <v>0.99277237356414905</v>
+      </c>
+      <c r="I41">
+        <v>11582344.3582484</v>
+      </c>
+      <c r="J41">
+        <v>36.331951429999997</v>
+      </c>
+      <c r="K41">
+        <v>145.4</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41">
+        <v>44.811565732000297</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>500</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F42">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G42">
+        <v>2.6688394377796598</v>
+      </c>
+      <c r="H42">
+        <v>1.0202401134921799</v>
+      </c>
+      <c r="I42">
+        <v>11902801.3240755</v>
+      </c>
+      <c r="J42">
+        <v>36.686501710000002</v>
+      </c>
+      <c r="K42">
+        <v>146</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>43.3434338611914</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>500</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F43">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G43">
+        <v>2.7399885091043799</v>
+      </c>
+      <c r="H43">
+        <v>1.0357434961338401</v>
+      </c>
+      <c r="I43">
+        <v>12083674.121561499</v>
+      </c>
+      <c r="J43">
+        <v>25.649821119999999</v>
+      </c>
+      <c r="K43">
+        <v>122</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>42.488170153356897</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>500</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F44">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G44">
+        <v>2.59982656531708</v>
+      </c>
+      <c r="H44">
+        <v>1.00520220858259</v>
+      </c>
+      <c r="I44">
+        <v>11727359.1001302</v>
+      </c>
+      <c r="J44">
+        <v>26.034803839999999</v>
+      </c>
+      <c r="K44">
+        <v>122.6</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>44.352638047413301</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>500</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F45">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G45">
+        <v>2.58012324603762</v>
+      </c>
+      <c r="H45">
+        <v>1.0009088553115899</v>
+      </c>
+      <c r="I45">
+        <v>11677269.9786353</v>
+      </c>
+      <c r="J45">
+        <v>26.419786569999999</v>
+      </c>
+      <c r="K45">
+        <v>123.2</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>45.025892545465702</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>500</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F46">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G46">
+        <v>2.5546548034263599</v>
+      </c>
+      <c r="H46">
+        <v>0.99535928166660403</v>
+      </c>
+      <c r="I46">
+        <v>11612524.952777</v>
+      </c>
+      <c r="J46">
+        <v>26.8047693</v>
+      </c>
+      <c r="K46">
+        <v>123.8</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>43.995743920303703</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>500</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F47">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G47">
+        <v>2.4474906765101498</v>
+      </c>
+      <c r="H47">
+        <v>0.97200821841156304</v>
+      </c>
+      <c r="I47">
+        <v>11340095.881468199</v>
+      </c>
+      <c r="J47">
+        <v>27.18975202</v>
+      </c>
+      <c r="K47">
+        <v>124.4</v>
+      </c>
+      <c r="L47">
+        <v>50</v>
+      </c>
+      <c r="M47">
+        <v>45.110398670542303</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>500</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F48">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G48">
+        <v>2.4292268095490699</v>
+      </c>
+      <c r="H48">
+        <v>0.96802852180074395</v>
+      </c>
+      <c r="I48">
+        <v>11293666.087675299</v>
+      </c>
+      <c r="J48">
+        <v>27.574734750000001</v>
+      </c>
+      <c r="K48">
+        <v>125</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>43.352080940645301</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>500</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F49">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G49">
+        <v>2.38250011436531</v>
+      </c>
+      <c r="H49">
+        <v>0.95784677492020198</v>
+      </c>
+      <c r="I49">
+        <v>11174879.040735601</v>
+      </c>
+      <c r="J49">
+        <v>27.959717479999998</v>
+      </c>
+      <c r="K49">
+        <v>125.6</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>43.307730550207303</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>500</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F50">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G50">
+        <v>2.3143366068334301</v>
+      </c>
+      <c r="H50">
+        <v>0.94299394662900504</v>
+      </c>
+      <c r="I50">
+        <v>11001596.044004999</v>
+      </c>
+      <c r="J50">
+        <v>28.344700199999998</v>
+      </c>
+      <c r="K50">
+        <v>126.2</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+      <c r="M50">
+        <v>44.278693655922602</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F51">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G51">
+        <v>2.4031995139477198</v>
+      </c>
+      <c r="H51">
+        <v>0.96235717408920896</v>
+      </c>
+      <c r="I51">
+        <v>11227500.364374099</v>
+      </c>
+      <c r="J51">
+        <v>28.729682929999999</v>
+      </c>
+      <c r="K51">
+        <v>126.8</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>44.258704808258301</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F52">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G52">
+        <v>2.61526313632426</v>
+      </c>
+      <c r="H52">
+        <v>1.0085658374050499</v>
+      </c>
+      <c r="I52">
+        <v>11766601.4363923</v>
+      </c>
+      <c r="J52">
+        <v>29.11466566</v>
+      </c>
+      <c r="K52">
+        <v>127.4</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>39.394292031261401</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F53">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G53">
+        <v>2.5206036737098998</v>
+      </c>
+      <c r="H53">
+        <v>0.98793954050138699</v>
+      </c>
+      <c r="I53">
+        <v>11525961.3058495</v>
+      </c>
+      <c r="J53">
+        <v>29.49964838</v>
+      </c>
+      <c r="K53">
+        <v>128</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>42.635927629847501</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <v>500</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F54">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G54">
+        <v>2.6053261442364199</v>
+      </c>
+      <c r="H54">
+        <v>1.0064005668291101</v>
+      </c>
+      <c r="I54">
+        <v>11741339.9463396</v>
+      </c>
+      <c r="J54">
+        <v>29.884631110000001</v>
+      </c>
+      <c r="K54">
+        <v>128.6</v>
+      </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <v>39.5605861242841</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>500</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F55">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G55">
+        <v>2.3946329581138301</v>
+      </c>
+      <c r="H55">
+        <v>0.96049052157300396</v>
+      </c>
+      <c r="I55">
+        <v>11205722.751684999</v>
+      </c>
+      <c r="J55">
+        <v>30.269613840000002</v>
+      </c>
+      <c r="K55">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <v>44.433875866390203</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>500</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F56">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G56">
+        <v>2.2772621217664999</v>
+      </c>
+      <c r="H56">
+        <v>0.93491541633292097</v>
+      </c>
+      <c r="I56">
+        <v>10907346.523884</v>
+      </c>
+      <c r="J56">
+        <v>30.654596560000002</v>
+      </c>
+      <c r="K56">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>43.8277063372661</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <v>500</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F57">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G57">
+        <v>2.3290635300182001</v>
+      </c>
+      <c r="H57">
+        <v>0.94620294319096598</v>
+      </c>
+      <c r="I57">
+        <v>11039034.3372279</v>
+      </c>
+      <c r="J57">
+        <v>31.039579289999999</v>
+      </c>
+      <c r="K57">
+        <v>130.4</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>43.0092014903137</v>
+      </c>
+      <c r="N57">
+        <v>108746</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <v>500</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F58">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G58">
+        <v>2.3481792688385199</v>
+      </c>
+      <c r="H58">
+        <v>0.95036826267991403</v>
+      </c>
+      <c r="I58">
+        <v>11087629.731265601</v>
+      </c>
+      <c r="J58">
+        <v>31.42456202</v>
+      </c>
+      <c r="K58">
+        <v>131</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <v>44.099794451783502</v>
+      </c>
+      <c r="N58">
+        <v>530138</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <v>500</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F59">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G59">
+        <v>2.5448278159552999</v>
+      </c>
+      <c r="H59">
+        <v>0.99321798109665904</v>
+      </c>
+      <c r="I59">
+        <v>11587543.112794301</v>
+      </c>
+      <c r="J59">
+        <v>31.80954474</v>
+      </c>
+      <c r="K59">
+        <v>131.6</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <v>39.995018642175999</v>
+      </c>
+      <c r="N59">
+        <v>490220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <v>500</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F60">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G60">
+        <v>2.3313434736944099</v>
+      </c>
+      <c r="H60">
+        <v>0.94669974291801195</v>
+      </c>
+      <c r="I60">
+        <v>11044830.3340434</v>
+      </c>
+      <c r="J60">
+        <v>32.194527469999997</v>
+      </c>
+      <c r="K60">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <v>45.145199179937897</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <v>500</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F61">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G61">
+        <v>2.2772063840822998</v>
+      </c>
+      <c r="H61">
+        <v>0.93490327109153304</v>
+      </c>
+      <c r="I61">
+        <v>10907204.829401201</v>
+      </c>
+      <c r="J61">
+        <v>32.579510200000001</v>
+      </c>
+      <c r="K61">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>45.1605395513281</v>
+      </c>
+      <c r="N61">
+        <v>37292</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <v>500</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F62">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G62">
+        <v>2.33285403012371</v>
+      </c>
+      <c r="H62">
+        <v>0.947028893163957</v>
+      </c>
+      <c r="I62">
+        <v>11048670.4202461</v>
+      </c>
+      <c r="J62">
+        <v>32.964492929999999</v>
+      </c>
+      <c r="K62">
+        <v>133.4</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>44.156049001977301</v>
+      </c>
+      <c r="N62">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <v>500</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F63">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G63">
+        <v>2.2843511916472701</v>
+      </c>
+      <c r="H63">
+        <v>0.936460124659941</v>
+      </c>
+      <c r="I63">
+        <v>10925368.121032599</v>
+      </c>
+      <c r="J63">
+        <v>33.349475650000002</v>
+      </c>
+      <c r="K63">
+        <v>134</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>44.512764252830102</v>
+      </c>
+      <c r="N63">
+        <v>99440</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <v>500</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F64">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G64">
+        <v>2.1794197603863701</v>
+      </c>
+      <c r="H64">
+        <v>0.91359556578819001</v>
+      </c>
+      <c r="I64">
+        <v>10658614.9341955</v>
+      </c>
+      <c r="J64">
+        <v>33.73445838</v>
+      </c>
+      <c r="K64">
+        <v>134.6</v>
+      </c>
+      <c r="L64">
+        <v>50</v>
+      </c>
+      <c r="M64">
+        <v>44.038957160819798</v>
+      </c>
+      <c r="N64">
+        <v>458180</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>500</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F65">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G65">
+        <v>2.2552694429963198</v>
+      </c>
+      <c r="H65">
+        <v>0.93012321162889899</v>
+      </c>
+      <c r="I65">
+        <v>10851437.4690038</v>
+      </c>
+      <c r="J65">
+        <v>34.119441109999997</v>
+      </c>
+      <c r="K65">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>43.800169408762699</v>
+      </c>
+      <c r="N65">
+        <v>1146742</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>500</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F66">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G66">
+        <v>2.39541505955289</v>
+      </c>
+      <c r="H66">
+        <v>0.96066094147657599</v>
+      </c>
+      <c r="I66">
+        <v>11207710.983893299</v>
+      </c>
+      <c r="J66">
+        <v>34.50442383</v>
+      </c>
+      <c r="K66">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="L66">
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <v>44.316339221029402</v>
+      </c>
+      <c r="N66">
+        <v>7802200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <v>500</v>
+      </c>
+      <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F67">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G67">
+        <v>2.4473975678209001</v>
+      </c>
+      <c r="H67">
+        <v>0.97198793002817596</v>
+      </c>
+      <c r="I67">
+        <v>11339859.183661999</v>
+      </c>
+      <c r="J67">
+        <v>34.889406559999998</v>
+      </c>
+      <c r="K67">
+        <v>136.4</v>
+      </c>
+      <c r="L67">
+        <v>50</v>
+      </c>
+      <c r="M67">
+        <v>45.033921747378002</v>
+      </c>
+      <c r="N67">
+        <v>1962035</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <v>500</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F68">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G68">
+        <v>2.4509965253688302</v>
+      </c>
+      <c r="H68">
+        <v>0.97277214287786795</v>
+      </c>
+      <c r="I68">
+        <v>11349008.3335751</v>
+      </c>
+      <c r="J68">
+        <v>35.274389290000002</v>
+      </c>
+      <c r="K68">
+        <v>137</v>
+      </c>
+      <c r="L68">
+        <v>50</v>
+      </c>
+      <c r="M68">
+        <v>44.912840883800001</v>
+      </c>
+      <c r="N68">
+        <v>7884892</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <v>500</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F69">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G69">
+        <v>2.6282400579569698</v>
+      </c>
+      <c r="H69">
+        <v>1.0113935086288199</v>
+      </c>
+      <c r="I69">
+        <v>11799590.9340029</v>
+      </c>
+      <c r="J69">
+        <v>35.659372009999998</v>
+      </c>
+      <c r="K69">
+        <v>137.6</v>
+      </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+      <c r="M69">
+        <v>40.2954356482158</v>
+      </c>
+      <c r="N69">
+        <v>360072</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <v>500</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F70">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G70">
+        <v>2.4467497148433899</v>
+      </c>
+      <c r="H70">
+        <v>0.97184676286437599</v>
+      </c>
+      <c r="I70">
+        <v>11338212.233417699</v>
+      </c>
+      <c r="J70">
+        <v>36.044354740000003</v>
+      </c>
+      <c r="K70">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <v>44.378508394120601</v>
+      </c>
+      <c r="N70">
+        <v>906015</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <v>500</v>
+      </c>
+      <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F71">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G71">
+        <v>2.34295979014178</v>
+      </c>
+      <c r="H71">
+        <v>0.94923093827189398</v>
+      </c>
+      <c r="I71">
+        <v>11074360.946505399</v>
+      </c>
+      <c r="J71">
+        <v>36.42933747</v>
+      </c>
+      <c r="K71">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="L71">
+        <v>50</v>
+      </c>
+      <c r="M71">
+        <v>44.343117048041698</v>
+      </c>
+      <c r="N71">
+        <v>1637446</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <v>500</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F72">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G72">
+        <v>2.34993554746119</v>
+      </c>
+      <c r="H72">
+        <v>0.95075095579179403</v>
+      </c>
+      <c r="I72">
+        <v>11092094.4842376</v>
+      </c>
+      <c r="J72">
+        <v>36.814320189999997</v>
+      </c>
+      <c r="K72">
+        <v>139.4</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <v>43.538749413767299</v>
+      </c>
+      <c r="N72">
+        <v>223028</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <v>500</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F73">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G73">
+        <v>2.5447448470382201</v>
+      </c>
+      <c r="H73">
+        <v>0.99319990216962895</v>
+      </c>
+      <c r="I73">
+        <v>11587332.191979</v>
+      </c>
+      <c r="J73">
+        <v>37.199302920000001</v>
+      </c>
+      <c r="K73">
+        <v>140</v>
+      </c>
+      <c r="L73">
+        <v>50</v>
+      </c>
+      <c r="M73">
+        <v>43.190093398065798</v>
+      </c>
+      <c r="N73">
+        <v>730251</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <v>500</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F74">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G74">
+        <v>2.57068950386221</v>
+      </c>
+      <c r="H74">
+        <v>0.99885324289157595</v>
+      </c>
+      <c r="I74">
+        <v>11653287.833735</v>
+      </c>
+      <c r="J74">
+        <v>37.584285649999998</v>
+      </c>
+      <c r="K74">
+        <v>140.6</v>
+      </c>
+      <c r="L74">
+        <v>50</v>
+      </c>
+      <c r="M74">
+        <v>45.119451380832899</v>
+      </c>
+      <c r="N74">
+        <v>816550</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <v>500</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F75">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G75">
+        <v>2.4959162337880398</v>
+      </c>
+      <c r="H75">
+        <v>0.98256014734241504</v>
+      </c>
+      <c r="I75">
+        <v>11463201.7189948</v>
+      </c>
+      <c r="J75">
+        <v>37.969268370000002</v>
+      </c>
+      <c r="K75">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="L75">
+        <v>50</v>
+      </c>
+      <c r="M75">
+        <v>44.9772451424884</v>
+      </c>
+      <c r="N75">
+        <v>854966</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <v>500</v>
+      </c>
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F76">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G76">
+        <v>2.5681071823490198</v>
+      </c>
+      <c r="H76">
+        <v>0.998290555033851</v>
+      </c>
+      <c r="I76">
+        <v>11646723.1420616</v>
+      </c>
+      <c r="J76">
+        <v>38.354251099999999</v>
+      </c>
+      <c r="K76">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <v>45.167095099648698</v>
+      </c>
+      <c r="N76">
+        <v>73290</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <v>500</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F77">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G77">
+        <v>2.5632844539784099</v>
+      </c>
+      <c r="H77">
+        <v>0.99723968252189599</v>
+      </c>
+      <c r="I77">
+        <v>11634462.962755401</v>
+      </c>
+      <c r="J77">
+        <v>38.739233830000003</v>
+      </c>
+      <c r="K77">
+        <v>142.4</v>
+      </c>
+      <c r="L77">
+        <v>50</v>
+      </c>
+      <c r="M77">
+        <v>43.306348508090302</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <v>500</v>
+      </c>
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F78">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G78">
+        <v>2.3824109526425699</v>
+      </c>
+      <c r="H78">
+        <v>0.95782734658081603</v>
+      </c>
+      <c r="I78">
+        <v>11174652.376776099</v>
+      </c>
+      <c r="J78">
+        <v>39.12421655</v>
+      </c>
+      <c r="K78">
+        <v>143</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <v>43.867230027720097</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <v>500</v>
+      </c>
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F79">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G79">
+        <v>2.4377424580078002</v>
+      </c>
+      <c r="H79">
+        <v>0.96988408159990003</v>
+      </c>
+      <c r="I79">
+        <v>11315314.2853321</v>
+      </c>
+      <c r="J79">
+        <v>39.509199279999997</v>
+      </c>
+      <c r="K79">
+        <v>143.6</v>
+      </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <v>42.934652303411802</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B80">
+        <v>500</v>
+      </c>
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F80">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G80">
+        <v>2.4754457367226701</v>
+      </c>
+      <c r="H80">
+        <v>0.97809962603187095</v>
+      </c>
+      <c r="I80">
+        <v>11411162.3037051</v>
+      </c>
+      <c r="J80">
+        <v>39.894182010000002</v>
+      </c>
+      <c r="K80">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="L80">
+        <v>50</v>
+      </c>
+      <c r="M80">
+        <v>43.934882319389601</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B81">
+        <v>500</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F81">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G81">
+        <v>2.6188713110424402</v>
+      </c>
+      <c r="H81">
+        <v>1.00935205867614</v>
+      </c>
+      <c r="I81">
+        <v>11775774.017888401</v>
+      </c>
+      <c r="J81">
+        <v>40.279164729999998</v>
+      </c>
+      <c r="K81">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="M81">
+        <v>44.835123568762299</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B82">
+        <v>500</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F82">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G82">
+        <v>2.55366395929012</v>
+      </c>
+      <c r="H82">
+        <v>0.99514337672931796</v>
+      </c>
+      <c r="I82">
+        <v>11610006.061842</v>
+      </c>
+      <c r="J82">
+        <v>40.664147460000002</v>
+      </c>
+      <c r="K82">
+        <v>145.4</v>
+      </c>
+      <c r="L82">
+        <v>50</v>
+      </c>
+      <c r="M82">
+        <v>45.419183452800603</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B83">
+        <v>500</v>
+      </c>
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F83">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G83">
+        <v>2.6684502946362501</v>
+      </c>
+      <c r="H83">
+        <v>1.02015531920124</v>
+      </c>
+      <c r="I83">
+        <v>11901812.057347801</v>
+      </c>
+      <c r="J83">
+        <v>41.04913019</v>
+      </c>
+      <c r="K83">
+        <v>146</v>
+      </c>
+      <c r="L83">
+        <v>50</v>
+      </c>
+      <c r="M83">
+        <v>45.526971090215902</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B84">
+        <v>500</v>
+      </c>
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F84">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G84">
+        <v>2.6384580370394999</v>
+      </c>
+      <c r="H84">
+        <v>1.0136200062709</v>
+      </c>
+      <c r="I84">
+        <v>11825566.739827201</v>
+      </c>
+      <c r="J84">
+        <v>30.630613319999998</v>
+      </c>
+      <c r="K84">
+        <v>122</v>
+      </c>
+      <c r="L84">
+        <v>50</v>
+      </c>
+      <c r="M84">
+        <v>43.723196881987903</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B85">
+        <v>500</v>
+      </c>
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F85">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G85">
+        <v>2.5136556531459102</v>
+      </c>
+      <c r="H85">
+        <v>0.98642556682049298</v>
+      </c>
+      <c r="I85">
+        <v>11508298.279572399</v>
+      </c>
+      <c r="J85">
+        <v>30.81137863</v>
+      </c>
+      <c r="K85">
+        <v>122.6</v>
+      </c>
+      <c r="L85">
+        <v>50</v>
+      </c>
+      <c r="M85">
+        <v>44.048758788310003</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B86">
+        <v>500</v>
+      </c>
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F86">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G86">
+        <v>2.47458332424404</v>
+      </c>
+      <c r="H86">
+        <v>0.97791170635277602</v>
+      </c>
+      <c r="I86">
+        <v>11408969.907449</v>
+      </c>
+      <c r="J86">
+        <v>30.992143939999998</v>
+      </c>
+      <c r="K86">
+        <v>123.2</v>
+      </c>
+      <c r="L86">
+        <v>50</v>
+      </c>
+      <c r="M86">
+        <v>44.6564667023559</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B87">
+        <v>500</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F87">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G87">
+        <v>2.4702749033601998</v>
+      </c>
+      <c r="H87">
+        <v>0.97697290144218796</v>
+      </c>
+      <c r="I87">
+        <v>11398017.1834921</v>
+      </c>
+      <c r="J87">
+        <v>31.17290925</v>
+      </c>
+      <c r="K87">
+        <v>123.8</v>
+      </c>
+      <c r="L87">
+        <v>50</v>
+      </c>
+      <c r="M87">
+        <v>43.795429697802597</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B88">
+        <v>500</v>
+      </c>
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F88">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G88">
+        <v>2.4697162466633502</v>
+      </c>
+      <c r="H88">
+        <v>0.97685117014794398</v>
+      </c>
+      <c r="I88">
+        <v>11396596.9850593</v>
+      </c>
+      <c r="J88">
+        <v>31.353674560000002</v>
+      </c>
+      <c r="K88">
+        <v>124.4</v>
+      </c>
+      <c r="L88">
+        <v>50</v>
+      </c>
+      <c r="M88">
+        <v>43.628223393717903</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B89">
+        <v>500</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F89">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G89">
+        <v>2.4410156518767598</v>
+      </c>
+      <c r="H89">
+        <v>0.97059731054394704</v>
+      </c>
+      <c r="I89">
+        <v>11323635.2896793</v>
+      </c>
+      <c r="J89">
+        <v>31.53443987</v>
+      </c>
+      <c r="K89">
+        <v>125</v>
+      </c>
+      <c r="L89">
+        <v>50</v>
+      </c>
+      <c r="M89">
+        <v>44.381509956748303</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B90">
+        <v>500</v>
+      </c>
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F90">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G90">
+        <v>2.4023396597280202</v>
+      </c>
+      <c r="H90">
+        <v>0.96216981185473605</v>
+      </c>
+      <c r="I90">
+        <v>11225314.471638501</v>
+      </c>
+      <c r="J90">
+        <v>31.715205189999999</v>
+      </c>
+      <c r="K90">
+        <v>125.6</v>
+      </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90">
+        <v>43.328326955157102</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B91">
+        <v>500</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F91">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G91">
+        <v>2.3007501415996798</v>
+      </c>
+      <c r="H91">
+        <v>0.94003345585456999</v>
+      </c>
+      <c r="I91">
+        <v>10967056.984969901</v>
+      </c>
+      <c r="J91">
+        <v>31.895970500000001</v>
+      </c>
+      <c r="K91">
+        <v>126.2</v>
+      </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91">
+        <v>44.294180893682402</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B92">
+        <v>500</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F92">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G92">
+        <v>2.2872323890731998</v>
+      </c>
+      <c r="H92">
+        <v>0.93708793757904996</v>
+      </c>
+      <c r="I92">
+        <v>10932692.605088901</v>
+      </c>
+      <c r="J92">
+        <v>32.076735810000002</v>
+      </c>
+      <c r="K92">
+        <v>126.8</v>
+      </c>
+      <c r="L92">
+        <v>50</v>
+      </c>
+      <c r="M92">
+        <v>44.0502932315405</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B93">
+        <v>500</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F93">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G93">
+        <v>2.36982064249072</v>
+      </c>
+      <c r="H93">
+        <v>0.95508391799872805</v>
+      </c>
+      <c r="I93">
+        <v>11142645.7099851</v>
+      </c>
+      <c r="J93">
+        <v>32.257501120000001</v>
+      </c>
+      <c r="K93">
+        <v>127.4</v>
+      </c>
+      <c r="L93">
+        <v>50</v>
+      </c>
+      <c r="M93">
+        <v>44.536872242183897</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B94">
+        <v>500</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F94">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G94">
+        <v>2.3949136730885598</v>
+      </c>
+      <c r="H94">
+        <v>0.960551689365997</v>
+      </c>
+      <c r="I94">
+        <v>11206436.375936599</v>
+      </c>
+      <c r="J94">
+        <v>32.438266429999999</v>
+      </c>
+      <c r="K94">
+        <v>128</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94">
+        <v>43.639960766256998</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B95">
+        <v>500</v>
+      </c>
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F95">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G95">
+        <v>2.3724094827541702</v>
+      </c>
+      <c r="H95">
+        <v>0.95564802629213397</v>
+      </c>
+      <c r="I95">
+        <v>11149226.9734082</v>
+      </c>
+      <c r="J95">
+        <v>32.619031739999997</v>
+      </c>
+      <c r="K95">
+        <v>128.6</v>
+      </c>
+      <c r="L95">
+        <v>50</v>
+      </c>
+      <c r="M95">
+        <v>43.195397690132701</v>
+      </c>
+      <c r="N95">
+        <v>17196</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B96">
+        <v>500</v>
+      </c>
+      <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F96">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G96">
+        <v>2.3133618730714001</v>
+      </c>
+      <c r="H96">
+        <v>0.94278155214225801</v>
+      </c>
+      <c r="I96">
+        <v>10999118.108326299</v>
+      </c>
+      <c r="J96">
+        <v>32.799797050000002</v>
+      </c>
+      <c r="K96">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L96">
+        <v>50</v>
+      </c>
+      <c r="M96">
+        <v>43.915859785508196</v>
+      </c>
+      <c r="N96">
+        <v>34698</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B97">
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F97">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G97">
+        <v>2.2475212603861898</v>
+      </c>
+      <c r="H97">
+        <v>0.92843488263815199</v>
+      </c>
+      <c r="I97">
+        <v>10831740.2974451</v>
+      </c>
+      <c r="J97">
+        <v>32.980562370000001</v>
+      </c>
+      <c r="K97">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="M97">
+        <v>43.862464764769797</v>
+      </c>
+      <c r="N97">
+        <v>1214586</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B98">
+        <v>500</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F98">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G98">
+        <v>2.2158334656770502</v>
+      </c>
+      <c r="H98">
+        <v>0.92153011217102998</v>
+      </c>
+      <c r="I98">
+        <v>10751184.6419953</v>
+      </c>
+      <c r="J98">
+        <v>33.161327679999999</v>
+      </c>
+      <c r="K98">
+        <v>130.4</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98">
+        <v>43.683906946329003</v>
+      </c>
+      <c r="N98">
+        <v>2014874</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B99">
+        <v>500</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F99">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G99">
+        <v>2.0814183228312801</v>
+      </c>
+      <c r="H99">
+        <v>0.89224105254493602</v>
+      </c>
+      <c r="I99">
+        <v>10409478.9463575</v>
+      </c>
+      <c r="J99">
+        <v>33.342092989999998</v>
+      </c>
+      <c r="K99">
+        <v>131</v>
+      </c>
+      <c r="L99">
+        <v>50</v>
+      </c>
+      <c r="M99">
+        <v>44.044832653609397</v>
+      </c>
+      <c r="N99">
+        <v>643301</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B100">
+        <v>500</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F100">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G100">
+        <v>2.0480451374905599</v>
+      </c>
+      <c r="H100">
+        <v>0.88496903545919303</v>
+      </c>
+      <c r="I100">
+        <v>10324638.747023899</v>
+      </c>
+      <c r="J100">
+        <v>33.522858300000003</v>
+      </c>
+      <c r="K100">
+        <v>131.6</v>
+      </c>
+      <c r="L100">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <v>44.504030613705197</v>
+      </c>
+      <c r="N100">
+        <v>787822</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B101">
+        <v>500</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F101">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G101">
+        <v>2.1018522654172802</v>
+      </c>
+      <c r="H101">
+        <v>0.89669360863442604</v>
+      </c>
+      <c r="I101">
+        <v>10461425.4340683</v>
+      </c>
+      <c r="J101">
+        <v>33.703623610000001</v>
+      </c>
+      <c r="K101">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="L101">
+        <v>50</v>
+      </c>
+      <c r="M101">
+        <v>43.4941725360219</v>
+      </c>
+      <c r="N101">
+        <v>164614</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B102">
+        <v>500</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F102">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G102">
+        <v>2.06152401641631</v>
+      </c>
+      <c r="H102">
+        <v>0.88790608317711395</v>
+      </c>
+      <c r="I102">
+        <v>10358904.3037329</v>
+      </c>
+      <c r="J102">
+        <v>33.884388919999999</v>
+      </c>
+      <c r="K102">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="L102">
+        <v>50</v>
+      </c>
+      <c r="M102">
+        <v>42.717401738584897</v>
+      </c>
+      <c r="N102">
+        <v>817962</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B103">
+        <v>500</v>
+      </c>
+      <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F103">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G103">
+        <v>2.7992605771357599</v>
+      </c>
+      <c r="H103">
+        <v>1.04865887975788</v>
+      </c>
+      <c r="I103">
+        <v>12234353.5971753</v>
+      </c>
+      <c r="J103">
+        <v>23.304490470000001</v>
+      </c>
+      <c r="K103">
+        <v>122</v>
+      </c>
+      <c r="L103">
+        <v>50</v>
+      </c>
+      <c r="M103">
+        <v>42.4148842352323</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B104">
+        <v>500</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F104">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G104">
+        <v>2.5694477919365601</v>
+      </c>
+      <c r="H104">
+        <v>0.99858267386297594</v>
+      </c>
+      <c r="I104">
+        <v>11650131.195068</v>
+      </c>
+      <c r="J104">
+        <v>23.659040749999999</v>
+      </c>
+      <c r="K104">
+        <v>122.6</v>
+      </c>
+      <c r="L104">
+        <v>50</v>
+      </c>
+      <c r="M104">
+        <v>43.098131406217497</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B105">
+        <v>500</v>
+      </c>
+      <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F105">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G105">
+        <v>2.48808192561241</v>
+      </c>
+      <c r="H105">
+        <v>0.98085305159094505</v>
+      </c>
+      <c r="I105">
+        <v>11443285.6018943</v>
+      </c>
+      <c r="J105">
+        <v>24.013591030000001</v>
+      </c>
+      <c r="K105">
+        <v>123.2</v>
+      </c>
+      <c r="L105">
+        <v>50</v>
+      </c>
+      <c r="M105">
+        <v>44.776295555847497</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B106">
+        <v>500</v>
+      </c>
+      <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F106">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G106">
+        <v>2.5570379648141399</v>
+      </c>
+      <c r="H106">
+        <v>0.99587857253300305</v>
+      </c>
+      <c r="I106">
+        <v>11618583.346218299</v>
+      </c>
+      <c r="J106">
+        <v>24.368141309999999</v>
+      </c>
+      <c r="K106">
+        <v>123.8</v>
+      </c>
+      <c r="L106">
+        <v>50</v>
+      </c>
+      <c r="M106">
+        <v>44.491282799599396</v>
+      </c>
+      <c r="N106">
+        <v>51579</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B107">
+        <v>500</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F107">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G107">
+        <v>2.4598129169738199</v>
+      </c>
+      <c r="H107">
+        <v>0.97469323460859703</v>
+      </c>
+      <c r="I107">
+        <v>11371421.0704336</v>
+      </c>
+      <c r="J107">
+        <v>24.72269159</v>
+      </c>
+      <c r="K107">
+        <v>124.4</v>
+      </c>
+      <c r="L107">
+        <v>50</v>
+      </c>
+      <c r="M107">
+        <v>44.3934970363632</v>
+      </c>
+      <c r="N107">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B108">
+        <v>500</v>
+      </c>
+      <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F108">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G108">
+        <v>2.4469890656225002</v>
+      </c>
+      <c r="H108">
+        <v>0.97189891739914402</v>
+      </c>
+      <c r="I108">
+        <v>11338820.702989999</v>
+      </c>
+      <c r="J108">
+        <v>25.077241879999999</v>
+      </c>
+      <c r="K108">
+        <v>125</v>
+      </c>
+      <c r="L108">
+        <v>50</v>
+      </c>
+      <c r="M108">
+        <v>44.483926094912199</v>
+      </c>
+      <c r="N108">
+        <v>26466</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B109">
+        <v>500</v>
+      </c>
+      <c r="C109">
+        <v>107</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F109">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G109">
+        <v>2.39986196129977</v>
+      </c>
+      <c r="H109">
+        <v>0.96162992136722103</v>
+      </c>
+      <c r="I109">
+        <v>11219015.7492842</v>
+      </c>
+      <c r="J109">
+        <v>25.431792160000001</v>
+      </c>
+      <c r="K109">
+        <v>125.6</v>
+      </c>
+      <c r="L109">
+        <v>50</v>
+      </c>
+      <c r="M109">
+        <v>43.304431382242797</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B110">
+        <v>500</v>
+      </c>
+      <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F110">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G110">
+        <v>2.3722858616279199</v>
+      </c>
+      <c r="H110">
+        <v>0.95562108924872302</v>
+      </c>
+      <c r="I110">
+        <v>11148912.707901699</v>
+      </c>
+      <c r="J110">
+        <v>25.786342439999999</v>
+      </c>
+      <c r="K110">
+        <v>126.2</v>
+      </c>
+      <c r="L110">
+        <v>50</v>
+      </c>
+      <c r="M110">
+        <v>44.235649677708999</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B111">
+        <v>500</v>
+      </c>
+      <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F111">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G111">
+        <v>2.31716564872072</v>
+      </c>
+      <c r="H111">
+        <v>0.94361039485624398</v>
+      </c>
+      <c r="I111">
+        <v>11008787.9399895</v>
+      </c>
+      <c r="J111">
+        <v>26.14089272</v>
+      </c>
+      <c r="K111">
+        <v>126.8</v>
+      </c>
+      <c r="L111">
+        <v>50</v>
+      </c>
+      <c r="M111">
+        <v>43.8167466715838</v>
+      </c>
+      <c r="N111">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B112">
+        <v>500</v>
+      </c>
+      <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F112">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G112">
+        <v>2.42550860967315</v>
+      </c>
+      <c r="H112">
+        <v>0.96721832604778002</v>
+      </c>
+      <c r="I112">
+        <v>11284213.8038907</v>
+      </c>
+      <c r="J112">
+        <v>26.495443000000002</v>
+      </c>
+      <c r="K112">
+        <v>127.4</v>
+      </c>
+      <c r="L112">
+        <v>50</v>
+      </c>
+      <c r="M112">
+        <v>43.296356188743502</v>
+      </c>
+      <c r="N112">
+        <v>281190</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B113">
+        <v>500</v>
+      </c>
+      <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F113">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G113">
+        <v>2.44888022883866</v>
+      </c>
+      <c r="H113">
+        <v>0.97231100186394404</v>
+      </c>
+      <c r="I113">
+        <v>11343628.355079301</v>
+      </c>
+      <c r="J113">
+        <v>26.84999328</v>
+      </c>
+      <c r="K113">
+        <v>128</v>
+      </c>
+      <c r="L113">
+        <v>50</v>
+      </c>
+      <c r="M113">
+        <v>43.105158000349398</v>
+      </c>
+      <c r="N113">
+        <v>117453</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B114">
+        <v>500</v>
+      </c>
+      <c r="C114">
+        <v>112</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F114">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G114">
+        <v>2.4532709895115898</v>
+      </c>
+      <c r="H114">
+        <v>0.97326774861457699</v>
+      </c>
+      <c r="I114">
+        <v>11354790.400503401</v>
+      </c>
+      <c r="J114">
+        <v>27.204543560000001</v>
+      </c>
+      <c r="K114">
+        <v>128.6</v>
+      </c>
+      <c r="L114">
+        <v>50</v>
+      </c>
+      <c r="M114">
+        <v>43.392656326076903</v>
+      </c>
+      <c r="N114">
+        <v>17111</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B115">
+        <v>500</v>
+      </c>
+      <c r="C115">
+        <v>113</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F115">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G115">
+        <v>2.5290104381836001</v>
+      </c>
+      <c r="H115">
+        <v>0.98977137448020802</v>
+      </c>
+      <c r="I115">
+        <v>11547332.702268999</v>
+      </c>
+      <c r="J115">
+        <v>27.559093839999999</v>
+      </c>
+      <c r="K115">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L115">
+        <v>50</v>
+      </c>
+      <c r="M115">
+        <v>43.289855335375997</v>
+      </c>
+      <c r="N115">
+        <v>21803</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B116">
+        <v>500</v>
+      </c>
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F116">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G116">
+        <v>2.33415303837613</v>
+      </c>
+      <c r="H116">
+        <v>0.94731194706215904</v>
+      </c>
+      <c r="I116">
+        <v>11051972.7157251</v>
+      </c>
+      <c r="J116">
+        <v>27.913644120000001</v>
+      </c>
+      <c r="K116">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="L116">
+        <v>50</v>
+      </c>
+      <c r="M116">
+        <v>43.965663121483999</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B117">
+        <v>500</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F117">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G117">
+        <v>2.3240327755877499</v>
+      </c>
+      <c r="H117">
+        <v>0.94510674180057197</v>
+      </c>
+      <c r="I117">
+        <v>11026245.3210066</v>
+      </c>
+      <c r="J117">
+        <v>28.268194399999999</v>
+      </c>
+      <c r="K117">
+        <v>130.4</v>
+      </c>
+      <c r="L117">
+        <v>50</v>
+      </c>
+      <c r="M117">
+        <v>44.215399242223803</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B118">
+        <v>500</v>
+      </c>
+      <c r="C118">
+        <v>116</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F118">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G118">
+        <v>2.4123261826135298</v>
+      </c>
+      <c r="H118">
+        <v>0.96434587519148895</v>
+      </c>
+      <c r="I118">
+        <v>11250701.877234001</v>
+      </c>
+      <c r="J118">
+        <v>28.62274468</v>
+      </c>
+      <c r="K118">
+        <v>131</v>
+      </c>
+      <c r="L118">
+        <v>50</v>
+      </c>
+      <c r="M118">
+        <v>44.356287862518798</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B119">
+        <v>500</v>
+      </c>
+      <c r="C119">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F119">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G119">
+        <v>2.51778965555763</v>
+      </c>
+      <c r="H119">
+        <v>0.98732636594600698</v>
+      </c>
+      <c r="I119">
+        <v>11518807.6027034</v>
+      </c>
+      <c r="J119">
+        <v>28.977294969999999</v>
+      </c>
+      <c r="K119">
+        <v>131.6</v>
+      </c>
+      <c r="L119">
+        <v>50</v>
+      </c>
+      <c r="M119">
+        <v>43.796456959242803</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B120">
+        <v>500</v>
+      </c>
+      <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F120">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G120">
+        <v>2.5407664733984898</v>
+      </c>
+      <c r="H120">
+        <v>0.99233301455353196</v>
+      </c>
+      <c r="I120">
+        <v>11577218.5031245</v>
+      </c>
+      <c r="J120">
+        <v>29.331845250000001</v>
+      </c>
+      <c r="K120">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="L120">
+        <v>50</v>
+      </c>
+      <c r="M120">
+        <v>43.317135085031197</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B121">
+        <v>500</v>
+      </c>
+      <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F121">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G121">
+        <v>2.4562074934005</v>
+      </c>
+      <c r="H121">
+        <v>0.97390761281197002</v>
+      </c>
+      <c r="I121">
+        <v>11362255.482806301</v>
+      </c>
+      <c r="J121">
+        <v>29.686395529999999</v>
+      </c>
+      <c r="K121">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="L121">
+        <v>50</v>
+      </c>
+      <c r="M121">
+        <v>44.5917286953188</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B122">
+        <v>500</v>
+      </c>
+      <c r="C122">
+        <v>120</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F122">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G122">
+        <v>2.54567755340755</v>
+      </c>
+      <c r="H122">
+        <v>0.99340313888750698</v>
+      </c>
+      <c r="I122">
+        <v>11589703.287020899</v>
+      </c>
+      <c r="J122">
+        <v>30.04094581</v>
+      </c>
+      <c r="K122">
+        <v>133.4</v>
+      </c>
+      <c r="L122">
+        <v>50</v>
+      </c>
+      <c r="M122">
+        <v>42.899268377031298</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B123">
+        <v>500</v>
+      </c>
+      <c r="C123">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F123">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G123">
+        <v>2.6384018926837398</v>
+      </c>
+      <c r="H123">
+        <v>1.0136077724157799</v>
+      </c>
+      <c r="I123">
+        <v>11825424.011517501</v>
+      </c>
+      <c r="J123">
+        <v>30.395496090000002</v>
+      </c>
+      <c r="K123">
+        <v>134</v>
+      </c>
+      <c r="L123">
+        <v>50</v>
+      </c>
+      <c r="M123">
+        <v>39.980102465932802</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B124">
+        <v>500</v>
+      </c>
+      <c r="C124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F124">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G124">
+        <v>2.4420216106095798</v>
+      </c>
+      <c r="H124">
+        <v>0.97081650895182703</v>
+      </c>
+      <c r="I124">
+        <v>11326192.604437901</v>
+      </c>
+      <c r="J124">
+        <v>30.75004637</v>
+      </c>
+      <c r="K124">
+        <v>134.6</v>
+      </c>
+      <c r="L124">
+        <v>50</v>
+      </c>
+      <c r="M124">
+        <v>43.157054426474801</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B125">
+        <v>500</v>
+      </c>
+      <c r="C125">
+        <v>123</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F125">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G125">
+        <v>2.4507283206008199</v>
+      </c>
+      <c r="H125">
+        <v>0.97271370105891797</v>
+      </c>
+      <c r="I125">
+        <v>11348326.512354</v>
+      </c>
+      <c r="J125">
+        <v>31.104596650000001</v>
+      </c>
+      <c r="K125">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="L125">
+        <v>50</v>
+      </c>
+      <c r="M125">
+        <v>42.233918651585299</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B126">
+        <v>500</v>
+      </c>
+      <c r="C126">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F126">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G126">
+        <v>2.4406731415370202</v>
+      </c>
+      <c r="H126">
+        <v>0.97052267754091803</v>
+      </c>
+      <c r="I126">
+        <v>11322764.571310701</v>
+      </c>
+      <c r="J126">
+        <v>31.459146929999999</v>
+      </c>
+      <c r="K126">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="L126">
+        <v>50</v>
+      </c>
+      <c r="M126">
+        <v>44.959026774302899</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B127">
+        <v>500</v>
+      </c>
+      <c r="C127">
+        <v>125</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F127">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G127">
+        <v>2.5409597152027001</v>
+      </c>
+      <c r="H127">
+        <v>0.99237512194266897</v>
+      </c>
+      <c r="I127">
+        <v>11577709.755997799</v>
+      </c>
+      <c r="J127">
+        <v>31.813697210000001</v>
+      </c>
+      <c r="K127">
+        <v>136.4</v>
+      </c>
+      <c r="L127">
+        <v>50</v>
+      </c>
+      <c r="M127">
+        <v>44.232920350153698</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B128">
+        <v>500</v>
+      </c>
+      <c r="C128">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F128">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G128">
+        <v>2.4716667946317399</v>
+      </c>
+      <c r="H128">
+        <v>0.97727619455025605</v>
+      </c>
+      <c r="I128">
+        <v>11401555.6030863</v>
+      </c>
+      <c r="J128">
+        <v>32.168247489999999</v>
+      </c>
+      <c r="K128">
+        <v>137</v>
+      </c>
+      <c r="L128">
+        <v>50</v>
+      </c>
+      <c r="M128">
+        <v>44.326367228032403</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B129">
+        <v>500</v>
+      </c>
+      <c r="C129">
+        <v>127</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F129">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G129">
+        <v>2.56320938770908</v>
+      </c>
+      <c r="H129">
+        <v>0.99722332558180804</v>
+      </c>
+      <c r="I129">
+        <v>11634272.131787701</v>
+      </c>
+      <c r="J129">
+        <v>32.522797779999998</v>
+      </c>
+      <c r="K129">
+        <v>137.6</v>
+      </c>
+      <c r="L129">
+        <v>50</v>
+      </c>
+      <c r="M129">
+        <v>42.993220385000598</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B130">
+        <v>500</v>
+      </c>
+      <c r="C130">
+        <v>128</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F130">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G130">
+        <v>2.5577267459216499</v>
+      </c>
+      <c r="H130">
+        <v>0.996028657936328</v>
+      </c>
+      <c r="I130">
+        <v>11620334.3425905</v>
+      </c>
+      <c r="J130">
+        <v>32.877348060000003</v>
+      </c>
+      <c r="K130">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="L130">
+        <v>50</v>
+      </c>
+      <c r="M130">
+        <v>43.766501930865999</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B131">
+        <v>500</v>
+      </c>
+      <c r="C131">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F131">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G131">
+        <v>2.5281089775507901</v>
+      </c>
+      <c r="H131">
+        <v>0.98957494620831798</v>
+      </c>
+      <c r="I131">
+        <v>11545041.039097</v>
+      </c>
+      <c r="J131">
+        <v>33.231898340000001</v>
+      </c>
+      <c r="K131">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="L131">
+        <v>50</v>
+      </c>
+      <c r="M131">
+        <v>43.1051626297334</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B132">
+        <v>500</v>
+      </c>
+      <c r="C132">
+        <v>130</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F132">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G132">
+        <v>2.4409738108084098</v>
+      </c>
+      <c r="H132">
+        <v>0.97058819337515301</v>
+      </c>
+      <c r="I132">
+        <v>11323528.9227101</v>
+      </c>
+      <c r="J132">
+        <v>33.586448619999999</v>
+      </c>
+      <c r="K132">
+        <v>139.4</v>
+      </c>
+      <c r="L132">
+        <v>50</v>
+      </c>
+      <c r="M132">
+        <v>42.604867673208901</v>
+      </c>
+      <c r="N132">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B133">
+        <v>500</v>
+      </c>
+      <c r="C133">
+        <v>131</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F133">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G133">
+        <v>2.52627067220737</v>
+      </c>
+      <c r="H133">
+        <v>0.98917437947398701</v>
+      </c>
+      <c r="I133">
+        <v>11540367.760529799</v>
+      </c>
+      <c r="J133">
+        <v>33.940998899999997</v>
+      </c>
+      <c r="K133">
+        <v>140</v>
+      </c>
+      <c r="L133">
+        <v>50</v>
+      </c>
+      <c r="M133">
+        <v>42.996798184680998</v>
+      </c>
+      <c r="N133">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B134">
+        <v>500</v>
+      </c>
+      <c r="C134">
+        <v>132</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F134">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G134">
+        <v>2.4472543616381799</v>
+      </c>
+      <c r="H134">
+        <v>0.97195672540095901</v>
+      </c>
+      <c r="I134">
+        <v>11339495.1296778</v>
+      </c>
+      <c r="J134">
+        <v>34.295549180000002</v>
+      </c>
+      <c r="K134">
+        <v>140.6</v>
+      </c>
+      <c r="L134">
+        <v>50</v>
+      </c>
+      <c r="M134">
+        <v>44.411793063247202</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B135">
+        <v>500</v>
+      </c>
+      <c r="C135">
+        <v>133</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F135">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G135">
+        <v>2.4677748941048701</v>
+      </c>
+      <c r="H135">
+        <v>0.97642814942545098</v>
+      </c>
+      <c r="I135">
+        <v>11391661.743296901</v>
+      </c>
+      <c r="J135">
+        <v>34.65009946</v>
+      </c>
+      <c r="K135">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="L135">
+        <v>50</v>
+      </c>
+      <c r="M135">
+        <v>45.007591005923103</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B136">
+        <v>500</v>
+      </c>
+      <c r="C136">
+        <v>134</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F136">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G136">
+        <v>2.4806984393093301</v>
+      </c>
+      <c r="H136">
+        <v>0.97924418992550399</v>
+      </c>
+      <c r="I136">
+        <v>11424515.549130799</v>
+      </c>
+      <c r="J136">
+        <v>35.004649739999998</v>
+      </c>
+      <c r="K136">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="L136">
+        <v>50</v>
+      </c>
+      <c r="M136">
+        <v>44.084250167421203</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B137">
+        <v>500</v>
+      </c>
+      <c r="C137">
+        <v>135</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F137">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G137">
+        <v>2.4723396852005601</v>
+      </c>
+      <c r="H137">
+        <v>0.97742281740520298</v>
+      </c>
+      <c r="I137">
+        <v>11403266.2030607</v>
+      </c>
+      <c r="J137">
+        <v>35.359200020000003</v>
+      </c>
+      <c r="K137">
+        <v>142.4</v>
+      </c>
+      <c r="L137">
+        <v>50</v>
+      </c>
+      <c r="M137">
+        <v>44.180139554268798</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B138">
+        <v>500</v>
+      </c>
+      <c r="C138">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F138">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G138">
+        <v>2.35880375205031</v>
+      </c>
+      <c r="H138">
+        <v>0.95268333757176205</v>
+      </c>
+      <c r="I138">
+        <v>11114638.938337199</v>
+      </c>
+      <c r="J138">
+        <v>35.713750310000002</v>
+      </c>
+      <c r="K138">
+        <v>143</v>
+      </c>
+      <c r="L138">
+        <v>50</v>
+      </c>
+      <c r="M138">
+        <v>44.446446257054298</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B139">
+        <v>500</v>
+      </c>
+      <c r="C139">
+        <v>137</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F139">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G139">
+        <v>2.42310426643391</v>
+      </c>
+      <c r="H139">
+        <v>0.96669441965594904</v>
+      </c>
+      <c r="I139">
+        <v>11278101.5626527</v>
+      </c>
+      <c r="J139">
+        <v>36.06830059</v>
+      </c>
+      <c r="K139">
+        <v>143.6</v>
+      </c>
+      <c r="L139">
+        <v>50</v>
+      </c>
+      <c r="M139">
+        <v>43.994985214785899</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B140">
+        <v>500</v>
+      </c>
+      <c r="C140">
+        <v>138</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F140">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G140">
+        <v>2.3517979335902899</v>
+      </c>
+      <c r="H140">
+        <v>0.95115676972932495</v>
+      </c>
+      <c r="I140">
+        <v>11096828.9801754</v>
+      </c>
+      <c r="J140">
+        <v>36.422850869999998</v>
+      </c>
+      <c r="K140">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="L140">
+        <v>50</v>
+      </c>
+      <c r="M140">
+        <v>44.183187184250698</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B141">
+        <v>500</v>
+      </c>
+      <c r="C141">
+        <v>139</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F141">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G141">
+        <v>2.4116870230660701</v>
+      </c>
+      <c r="H141">
+        <v>0.96420660232609701</v>
+      </c>
+      <c r="I141">
+        <v>11249077.027137799</v>
+      </c>
+      <c r="J141">
+        <v>36.777401150000003</v>
+      </c>
+      <c r="K141">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="L141">
+        <v>50</v>
+      </c>
+      <c r="M141">
+        <v>44.089756228261002</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B142">
+        <v>500</v>
+      </c>
+      <c r="C142">
+        <v>140</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F142">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G142">
+        <v>2.6454136183792998</v>
+      </c>
+      <c r="H142">
+        <v>1.01513562744485</v>
+      </c>
+      <c r="I142">
+        <v>11843248.9868565</v>
+      </c>
+      <c r="J142">
+        <v>37.131951430000001</v>
+      </c>
+      <c r="K142">
+        <v>145.4</v>
+      </c>
+      <c r="L142">
+        <v>50</v>
+      </c>
+      <c r="M142">
+        <v>43.297798945007898</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B143">
+        <v>500</v>
+      </c>
+      <c r="C143">
+        <v>141</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F143">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G143">
+        <v>2.65589458714524</v>
+      </c>
+      <c r="H143">
+        <v>1.0174194305389399</v>
+      </c>
+      <c r="I143">
+        <v>11869893.356287699</v>
+      </c>
+      <c r="J143">
+        <v>37.486501709999999</v>
+      </c>
+      <c r="K143">
+        <v>146</v>
+      </c>
+      <c r="L143">
+        <v>50</v>
+      </c>
+      <c r="M143">
+        <v>43.196016732325603</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B144">
+        <v>500</v>
+      </c>
+      <c r="C144">
+        <v>142</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F144">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G144">
+        <v>2.7696069232935798</v>
+      </c>
+      <c r="H144">
+        <v>1.0421973485856699</v>
+      </c>
+      <c r="I144">
+        <v>12158969.066832799</v>
+      </c>
+      <c r="J144">
+        <v>26.449821119999999</v>
+      </c>
+      <c r="K144">
+        <v>122</v>
+      </c>
+      <c r="L144">
+        <v>50</v>
+      </c>
+      <c r="M144">
+        <v>42.480855864752201</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <v>500</v>
+      </c>
+      <c r="C145">
+        <v>143</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F145">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G145">
+        <v>2.3883717880968298</v>
+      </c>
+      <c r="H145">
+        <v>0.95912621262630104</v>
+      </c>
+      <c r="I145">
+        <v>11189805.813973499</v>
+      </c>
+      <c r="J145">
+        <v>26.834803839999999</v>
+      </c>
+      <c r="K145">
+        <v>122.6</v>
+      </c>
+      <c r="L145">
+        <v>50</v>
+      </c>
+      <c r="M145">
+        <v>43.767123767948597</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B146">
+        <v>500</v>
+      </c>
+      <c r="C146">
+        <v>144</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F146">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G146">
+        <v>2.4870660063407</v>
+      </c>
+      <c r="H146">
+        <v>0.98063168278164003</v>
+      </c>
+      <c r="I146">
+        <v>11440702.9657858</v>
+      </c>
+      <c r="J146">
+        <v>27.21978657</v>
+      </c>
+      <c r="K146">
+        <v>123.2</v>
+      </c>
+      <c r="L146">
+        <v>50</v>
+      </c>
+      <c r="M146">
+        <v>42.881085760307997</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B147">
+        <v>500</v>
+      </c>
+      <c r="C147">
+        <v>145</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F147">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G147">
+        <v>2.4751874279941699</v>
+      </c>
+      <c r="H147">
+        <v>0.97804334055993103</v>
+      </c>
+      <c r="I147">
+        <v>11410505.639865801</v>
+      </c>
+      <c r="J147">
+        <v>27.604769300000001</v>
+      </c>
+      <c r="K147">
+        <v>123.8</v>
+      </c>
+      <c r="L147">
+        <v>50</v>
+      </c>
+      <c r="M147">
+        <v>43.849595005973597</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B148">
+        <v>500</v>
+      </c>
+      <c r="C148">
+        <v>146</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F148">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G148">
+        <v>2.6485785203778498</v>
+      </c>
+      <c r="H148">
+        <v>1.0158252595903301</v>
+      </c>
+      <c r="I148">
+        <v>11851294.6952205</v>
+      </c>
+      <c r="J148">
+        <v>27.989752020000001</v>
+      </c>
+      <c r="K148">
+        <v>124.4</v>
+      </c>
+      <c r="L148">
+        <v>50</v>
+      </c>
+      <c r="M148">
+        <v>39.9045180683379</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B149">
+        <v>500</v>
+      </c>
+      <c r="C149">
+        <v>147</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F149">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G149">
+        <v>2.5498121530667599</v>
+      </c>
+      <c r="H149">
+        <v>0.99430406815324801</v>
+      </c>
+      <c r="I149">
+        <v>11600214.128454501</v>
+      </c>
+      <c r="J149">
+        <v>28.374734749999998</v>
+      </c>
+      <c r="K149">
+        <v>125</v>
+      </c>
+      <c r="L149">
+        <v>50</v>
+      </c>
+      <c r="M149">
+        <v>43.746247815703001</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B150">
+        <v>500</v>
+      </c>
+      <c r="C150">
+        <v>148</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F150">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G150">
+        <v>2.4195795272197</v>
+      </c>
+      <c r="H150">
+        <v>0.96592637898117295</v>
+      </c>
+      <c r="I150">
+        <v>11269141.0881136</v>
+      </c>
+      <c r="J150">
+        <v>28.759717479999999</v>
+      </c>
+      <c r="K150">
+        <v>125.6</v>
+      </c>
+      <c r="L150">
+        <v>50</v>
+      </c>
+      <c r="M150">
+        <v>44.479991141476098</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B151">
+        <v>500</v>
+      </c>
+      <c r="C151">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F151">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G151">
+        <v>2.4212321208888401</v>
+      </c>
+      <c r="H151">
+        <v>0.96628647914167998</v>
+      </c>
+      <c r="I151">
+        <v>11273342.256652899</v>
+      </c>
+      <c r="J151">
+        <v>29.144700199999999</v>
+      </c>
+      <c r="K151">
+        <v>126.2</v>
+      </c>
+      <c r="L151">
+        <v>50</v>
+      </c>
+      <c r="M151">
+        <v>42.511395883622697</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B152">
+        <v>500</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F152">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G152">
+        <v>2.3852611445435601</v>
+      </c>
+      <c r="H152">
+        <v>0.95844840339604198</v>
+      </c>
+      <c r="I152">
+        <v>11181898.039620399</v>
+      </c>
+      <c r="J152">
+        <v>29.52968293</v>
+      </c>
+      <c r="K152">
+        <v>126.8</v>
+      </c>
+      <c r="L152">
+        <v>50</v>
+      </c>
+      <c r="M152">
+        <v>44.445766996793601</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B153">
+        <v>500</v>
+      </c>
+      <c r="C153">
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F153">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G153">
+        <v>2.3884550638650799</v>
+      </c>
+      <c r="H153">
+        <v>0.95914435841620105</v>
+      </c>
+      <c r="I153">
+        <v>11190017.514855601</v>
+      </c>
+      <c r="J153">
+        <v>29.914665660000001</v>
+      </c>
+      <c r="K153">
+        <v>127.4</v>
+      </c>
+      <c r="L153">
+        <v>50</v>
+      </c>
+      <c r="M153">
+        <v>44.303821962412499</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B154">
+        <v>500</v>
+      </c>
+      <c r="C154">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F154">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G154">
+        <v>2.3995531035660198</v>
+      </c>
+      <c r="H154">
+        <v>0.96156262126703695</v>
+      </c>
+      <c r="I154">
+        <v>11218230.5814487</v>
+      </c>
+      <c r="J154">
+        <v>30.299648380000001</v>
+      </c>
+      <c r="K154">
+        <v>128</v>
+      </c>
+      <c r="L154">
+        <v>50</v>
+      </c>
+      <c r="M154">
+        <v>42.728816031589403</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B155">
+        <v>500</v>
+      </c>
+      <c r="C155">
+        <v>153</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F155">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G155">
+        <v>2.3816102913401398</v>
+      </c>
+      <c r="H155">
+        <v>0.95765288248301805</v>
+      </c>
+      <c r="I155">
+        <v>11172616.9623018</v>
+      </c>
+      <c r="J155">
+        <v>30.684631110000002</v>
+      </c>
+      <c r="K155">
+        <v>128.6</v>
+      </c>
+      <c r="L155">
+        <v>50</v>
+      </c>
+      <c r="M155">
+        <v>44.919083735194903</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B156">
+        <v>500</v>
+      </c>
+      <c r="C156">
+        <v>154</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F156">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G156">
+        <v>2.47320379043853</v>
+      </c>
+      <c r="H156">
+        <v>0.97761110593655598</v>
+      </c>
+      <c r="I156">
+        <v>11405462.9025931</v>
+      </c>
+      <c r="J156">
+        <v>31.069613839999999</v>
+      </c>
+      <c r="K156">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L156">
+        <v>50</v>
+      </c>
+      <c r="M156">
+        <v>42.9119681684612</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B157">
+        <v>500</v>
+      </c>
+      <c r="C157">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F157">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G157">
+        <v>2.3051378845682402</v>
+      </c>
+      <c r="H157">
+        <v>0.94098954504742005</v>
+      </c>
+      <c r="I157">
+        <v>10978211.358886501</v>
+      </c>
+      <c r="J157">
+        <v>31.454596559999999</v>
+      </c>
+      <c r="K157">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="L157">
+        <v>50</v>
+      </c>
+      <c r="M157">
+        <v>45.183327794054797</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B158">
+        <v>500</v>
+      </c>
+      <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F158">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G158">
+        <v>2.26488144178643</v>
+      </c>
+      <c r="H158">
+        <v>0.93221766616526303</v>
+      </c>
+      <c r="I158">
+        <v>10875872.771927999</v>
+      </c>
+      <c r="J158">
+        <v>31.83957929</v>
+      </c>
+      <c r="K158">
+        <v>130.4</v>
+      </c>
+      <c r="L158">
+        <v>50</v>
+      </c>
+      <c r="M158">
+        <v>42.690698922512702</v>
+      </c>
+      <c r="N158">
+        <v>1031084</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B159">
+        <v>500</v>
+      </c>
+      <c r="C159">
+        <v>157</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F159">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G159">
+        <v>2.2004661259102001</v>
+      </c>
+      <c r="H159">
+        <v>0.91818156883583302</v>
+      </c>
+      <c r="I159">
+        <v>10712118.303084699</v>
+      </c>
+      <c r="J159">
+        <v>32.22456202</v>
+      </c>
+      <c r="K159">
+        <v>131</v>
+      </c>
+      <c r="L159">
+        <v>50</v>
+      </c>
+      <c r="M159">
+        <v>44.121977971077797</v>
+      </c>
+      <c r="N159">
+        <v>197436</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B160">
+        <v>500</v>
+      </c>
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F160">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G160">
+        <v>2.06290648559456</v>
+      </c>
+      <c r="H160">
+        <v>0.888207323211056</v>
+      </c>
+      <c r="I160">
+        <v>10362418.7707956</v>
+      </c>
+      <c r="J160">
+        <v>32.609544739999997</v>
+      </c>
+      <c r="K160">
+        <v>131.6</v>
+      </c>
+      <c r="L160">
+        <v>50</v>
+      </c>
+      <c r="M160">
+        <v>44.569987365190997</v>
+      </c>
+      <c r="N160">
+        <v>265316</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B161">
+        <v>500</v>
+      </c>
+      <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F161">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G161">
+        <v>2.0768421160202499</v>
+      </c>
+      <c r="H161">
+        <v>0.89124389708081397</v>
+      </c>
+      <c r="I161">
+        <v>10397845.4659428</v>
+      </c>
+      <c r="J161">
+        <v>32.994527470000001</v>
+      </c>
+      <c r="K161">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="L161">
+        <v>50</v>
+      </c>
+      <c r="M161">
+        <v>42.201996830774497</v>
+      </c>
+      <c r="N161">
+        <v>174114</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B162">
+        <v>500</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F162">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G162">
+        <v>2.2284569859946002</v>
+      </c>
+      <c r="H162">
+        <v>0.92428077724822399</v>
+      </c>
+      <c r="I162">
+        <v>10783275.7345626</v>
+      </c>
+      <c r="J162">
+        <v>33.379510199999999</v>
+      </c>
+      <c r="K162">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="L162">
+        <v>50</v>
+      </c>
+      <c r="M162">
+        <v>43.6355900928069</v>
+      </c>
+      <c r="N162">
+        <v>182968</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B163">
+        <v>500</v>
+      </c>
+      <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F163">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G163">
+        <v>2.2196835575693599</v>
+      </c>
+      <c r="H163">
+        <v>0.92236904719436497</v>
+      </c>
+      <c r="I163">
+        <v>10760972.2172675</v>
+      </c>
+      <c r="J163">
+        <v>33.764492930000003</v>
+      </c>
+      <c r="K163">
+        <v>133.4</v>
+      </c>
+      <c r="L163">
+        <v>50</v>
+      </c>
+      <c r="M163">
+        <v>44.223679260737597</v>
+      </c>
+      <c r="N163">
+        <v>736034</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B164">
+        <v>500</v>
+      </c>
+      <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F164">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G164">
+        <v>2.1552554079658401</v>
+      </c>
+      <c r="H164">
+        <v>0.90833015339575796</v>
+      </c>
+      <c r="I164">
+        <v>10597185.1229505</v>
+      </c>
+      <c r="J164">
+        <v>34.149475649999999</v>
+      </c>
+      <c r="K164">
+        <v>134</v>
+      </c>
+      <c r="L164">
+        <v>50</v>
+      </c>
+      <c r="M164">
+        <v>40.403558792911802</v>
+      </c>
+      <c r="N164">
+        <v>1106723</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B165">
+        <v>500</v>
+      </c>
+      <c r="C165">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F165">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G165">
+        <v>2.2996585166761698</v>
+      </c>
+      <c r="H165">
+        <v>0.93979559078373798</v>
+      </c>
+      <c r="I165">
+        <v>10964281.8924769</v>
+      </c>
+      <c r="J165">
+        <v>34.534458379999997</v>
+      </c>
+      <c r="K165">
+        <v>134.6</v>
+      </c>
+      <c r="L165">
+        <v>50</v>
+      </c>
+      <c r="M165">
+        <v>43.0785499267907</v>
+      </c>
+      <c r="N165">
+        <v>1213544</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B166">
+        <v>500</v>
+      </c>
+      <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F166">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G166">
+        <v>2.3119113618523399</v>
+      </c>
+      <c r="H166">
+        <v>0.94246548574762501</v>
+      </c>
+      <c r="I166">
+        <v>10995430.667055599</v>
+      </c>
+      <c r="J166">
+        <v>34.919441110000001</v>
+      </c>
+      <c r="K166">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="L166">
+        <v>50</v>
+      </c>
+      <c r="M166">
+        <v>43.08337133165</v>
+      </c>
+      <c r="N166">
+        <v>6672900</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B167">
+        <v>500</v>
+      </c>
+      <c r="C167">
+        <v>165</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F167">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G167">
+        <v>2.2271231190129401</v>
+      </c>
+      <c r="H167">
+        <v>0.92399012763291999</v>
+      </c>
+      <c r="I167">
+        <v>10779884.822384</v>
+      </c>
+      <c r="J167">
+        <v>35.304423829999998</v>
+      </c>
+      <c r="K167">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="L167">
+        <v>50</v>
+      </c>
+      <c r="M167">
+        <v>44.156472337836</v>
+      </c>
+      <c r="N167">
+        <v>2524792</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B168">
+        <v>500</v>
+      </c>
+      <c r="C168">
+        <v>166</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F168">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G168">
+        <v>2.36391631126458</v>
+      </c>
+      <c r="H168">
+        <v>0.95379736422455297</v>
+      </c>
+      <c r="I168">
+        <v>11127635.9159531</v>
+      </c>
+      <c r="J168">
+        <v>35.689406560000002</v>
+      </c>
+      <c r="K168">
+        <v>136.4</v>
+      </c>
+      <c r="L168">
+        <v>50</v>
+      </c>
+      <c r="M168">
+        <v>43.452050402291803</v>
+      </c>
+      <c r="N168">
+        <v>671450</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B169">
+        <v>500</v>
+      </c>
+      <c r="C169">
+        <v>167</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F169">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G169">
+        <v>2.48502963724833</v>
+      </c>
+      <c r="H169">
+        <v>0.980187957956412</v>
+      </c>
+      <c r="I169">
+        <v>11435526.1761581</v>
+      </c>
+      <c r="J169">
+        <v>36.074389289999999</v>
+      </c>
+      <c r="K169">
+        <v>137</v>
+      </c>
+      <c r="L169">
+        <v>50</v>
+      </c>
+      <c r="M169">
+        <v>42.8205132629095</v>
+      </c>
+      <c r="N169">
+        <v>151410</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B170">
+        <v>500</v>
+      </c>
+      <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F170">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G170">
+        <v>2.5626207863195898</v>
+      </c>
+      <c r="H170">
+        <v>0.99709506933904002</v>
+      </c>
+      <c r="I170">
+        <v>11632775.808955399</v>
+      </c>
+      <c r="J170">
+        <v>36.459372010000003</v>
+      </c>
+      <c r="K170">
+        <v>137.6</v>
+      </c>
+      <c r="L170">
+        <v>50</v>
+      </c>
+      <c r="M170">
+        <v>44.886570802469997</v>
+      </c>
+      <c r="N170">
+        <v>776100</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B171">
+        <v>500</v>
+      </c>
+      <c r="C171">
+        <v>169</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F171">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G171">
+        <v>2.5836877906000701</v>
+      </c>
+      <c r="H171">
+        <v>1.0016855695717499</v>
+      </c>
+      <c r="I171">
+        <v>11686331.645003799</v>
+      </c>
+      <c r="J171">
+        <v>36.84435474</v>
+      </c>
+      <c r="K171">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="L171">
+        <v>50</v>
+      </c>
+      <c r="M171">
+        <v>43.823177656233803</v>
+      </c>
+      <c r="N171">
+        <v>882462</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B172">
+        <v>500</v>
+      </c>
+      <c r="C172">
+        <v>170</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F172">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G172">
+        <v>2.4728597177957998</v>
+      </c>
+      <c r="H172">
+        <v>0.97753613250770499</v>
+      </c>
+      <c r="I172">
+        <v>11404588.212589899</v>
+      </c>
+      <c r="J172">
+        <v>37.229337469999997</v>
+      </c>
+      <c r="K172">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="L172">
+        <v>50</v>
+      </c>
+      <c r="M172">
+        <v>43.9211431138027</v>
+      </c>
+      <c r="N172">
+        <v>587028</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B173">
+        <v>500</v>
+      </c>
+      <c r="C173">
+        <v>171</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F173">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G173">
+        <v>2.4811191434319801</v>
+      </c>
+      <c r="H173">
+        <v>0.979335861353828</v>
+      </c>
+      <c r="I173">
+        <v>11425585.049128</v>
+      </c>
+      <c r="J173">
+        <v>37.614320190000001</v>
+      </c>
+      <c r="K173">
+        <v>139.4</v>
+      </c>
+      <c r="L173">
+        <v>50</v>
+      </c>
+      <c r="M173">
+        <v>41.888135234322903</v>
+      </c>
+      <c r="N173">
+        <v>380189</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B174">
+        <v>500</v>
+      </c>
+      <c r="C174">
+        <v>172</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F174">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G174">
+        <v>2.5437633184030601</v>
+      </c>
+      <c r="H174">
+        <v>0.99298602708002703</v>
+      </c>
+      <c r="I174">
+        <v>11584836.9826003</v>
+      </c>
+      <c r="J174">
+        <v>37.999302919999998</v>
+      </c>
+      <c r="K174">
+        <v>140</v>
+      </c>
+      <c r="L174">
+        <v>50</v>
+      </c>
+      <c r="M174">
+        <v>43.018772278886601</v>
+      </c>
+      <c r="N174">
+        <v>403964</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B175">
+        <v>500</v>
+      </c>
+      <c r="C175">
+        <v>173</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F175">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G175">
+        <v>2.5555679288582702</v>
+      </c>
+      <c r="H175">
+        <v>0.99555825169821899</v>
+      </c>
+      <c r="I175">
+        <v>11614846.2698125</v>
+      </c>
+      <c r="J175">
+        <v>38.384285650000002</v>
+      </c>
+      <c r="K175">
+        <v>140.6</v>
+      </c>
+      <c r="L175">
+        <v>50</v>
+      </c>
+      <c r="M175">
+        <v>42.559875498495799</v>
+      </c>
+      <c r="N175">
+        <v>1366072</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B176">
+        <v>500</v>
+      </c>
+      <c r="C176">
+        <v>174</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F176">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G176">
+        <v>2.50578787276865</v>
+      </c>
+      <c r="H176">
+        <v>0.984711177476288</v>
+      </c>
+      <c r="I176">
+        <v>11488297.0705567</v>
+      </c>
+      <c r="J176">
+        <v>38.769268369999999</v>
+      </c>
+      <c r="K176">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="L176">
+        <v>50</v>
+      </c>
+      <c r="M176">
+        <v>42.230798324384899</v>
+      </c>
+      <c r="N176">
+        <v>649256</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B177">
+        <v>500</v>
+      </c>
+      <c r="C177">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F177">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G177">
+        <v>2.5033582337493998</v>
+      </c>
+      <c r="H177">
+        <v>0.98418175913399597</v>
+      </c>
+      <c r="I177">
+        <v>11482120.523229901</v>
+      </c>
+      <c r="J177">
+        <v>39.154251100000003</v>
+      </c>
+      <c r="K177">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="L177">
+        <v>50</v>
+      </c>
+      <c r="M177">
+        <v>44.588338534431699</v>
+      </c>
+      <c r="N177">
+        <v>164216</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B178">
+        <v>500</v>
+      </c>
+      <c r="C178">
+        <v>176</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F178">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G178">
+        <v>2.60191271930002</v>
+      </c>
+      <c r="H178">
+        <v>1.00565678153547</v>
+      </c>
+      <c r="I178">
+        <v>11732662.4512472</v>
+      </c>
+      <c r="J178">
+        <v>39.539233830000001</v>
+      </c>
+      <c r="K178">
+        <v>142.4</v>
+      </c>
+      <c r="L178">
+        <v>50</v>
+      </c>
+      <c r="M178">
+        <v>43.124876055621101</v>
+      </c>
+      <c r="N178">
+        <v>57529</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B179">
+        <v>500</v>
+      </c>
+      <c r="C179">
+        <v>177</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F179">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G179">
+        <v>2.5805534187911099</v>
+      </c>
+      <c r="H179">
+        <v>1.00100258995458</v>
+      </c>
+      <c r="I179">
+        <v>11678363.549470101</v>
+      </c>
+      <c r="J179">
+        <v>39.924216549999997</v>
+      </c>
+      <c r="K179">
+        <v>143</v>
+      </c>
+      <c r="L179">
+        <v>50</v>
+      </c>
+      <c r="M179">
+        <v>44.730978449022899</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B180">
+        <v>500</v>
+      </c>
+      <c r="C180">
+        <v>178</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F180">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G180">
+        <v>2.5080117387034599</v>
+      </c>
+      <c r="H180">
+        <v>0.98519575786348601</v>
+      </c>
+      <c r="I180">
+        <v>11493950.5084073</v>
+      </c>
+      <c r="J180">
+        <v>40.309199280000001</v>
+      </c>
+      <c r="K180">
+        <v>143.6</v>
+      </c>
+      <c r="L180">
+        <v>50</v>
+      </c>
+      <c r="M180">
+        <v>42.781770539312099</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B181">
+        <v>500</v>
+      </c>
+      <c r="C181">
+        <v>179</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F181">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G181">
+        <v>2.4934608731589498</v>
+      </c>
+      <c r="H181">
+        <v>0.98202512426133703</v>
+      </c>
+      <c r="I181">
+        <v>11456959.7830489</v>
+      </c>
+      <c r="J181">
+        <v>40.694182009999999</v>
+      </c>
+      <c r="K181">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="L181">
+        <v>50</v>
+      </c>
+      <c r="M181">
+        <v>43.822875184598502</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B182">
+        <v>500</v>
+      </c>
+      <c r="C182">
+        <v>180</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F182">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G182">
+        <v>2.4385948362419598</v>
+      </c>
+      <c r="H182">
+        <v>0.97006981481712495</v>
+      </c>
+      <c r="I182">
+        <v>11317481.1728664</v>
+      </c>
+      <c r="J182">
+        <v>41.079164730000002</v>
+      </c>
+      <c r="K182">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="L182">
+        <v>50</v>
+      </c>
+      <c r="M182">
+        <v>44.188267599334097</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B183">
+        <v>500</v>
+      </c>
+      <c r="C183">
+        <v>181</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F183">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G183">
+        <v>2.6766930081493499</v>
+      </c>
+      <c r="H183">
+        <v>1.02195140647574</v>
+      </c>
+      <c r="I183">
+        <v>11922766.4088836</v>
+      </c>
+      <c r="J183">
+        <v>41.46414746</v>
+      </c>
+      <c r="K183">
+        <v>145.4</v>
+      </c>
+      <c r="L183">
+        <v>50</v>
+      </c>
+      <c r="M183">
+        <v>42.379412755631897</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B184">
+        <v>500</v>
+      </c>
+      <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F184">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G184">
+        <v>2.6809779463575998</v>
+      </c>
+      <c r="H184">
+        <v>1.0228850945113199</v>
+      </c>
+      <c r="I184">
+        <v>11933659.4359654</v>
+      </c>
+      <c r="J184">
+        <v>41.849130189999997</v>
+      </c>
+      <c r="K184">
+        <v>146</v>
+      </c>
+      <c r="L184">
+        <v>50</v>
+      </c>
+      <c r="M184">
+        <v>43.827205897439498</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B185">
+        <v>500</v>
+      </c>
+      <c r="C185">
+        <v>183</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F185">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G185">
+        <v>2.7943688045609898</v>
+      </c>
+      <c r="H185">
+        <v>1.04759296251384</v>
+      </c>
+      <c r="I185">
+        <v>12221917.895994799</v>
+      </c>
+      <c r="J185">
+        <v>31.430613319999999</v>
+      </c>
+      <c r="K185">
+        <v>122</v>
+      </c>
+      <c r="L185">
+        <v>50</v>
+      </c>
+      <c r="M185">
+        <v>42.2644128358193</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B186">
+        <v>500</v>
+      </c>
+      <c r="C186">
+        <v>184</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F186">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G186">
+        <v>2.6038403441186202</v>
+      </c>
+      <c r="H186">
+        <v>1.0060768109834399</v>
+      </c>
+      <c r="I186">
+        <v>11737562.7948069</v>
+      </c>
+      <c r="J186">
+        <v>31.611378630000001</v>
+      </c>
+      <c r="K186">
+        <v>122.6</v>
+      </c>
+      <c r="L186">
+        <v>50</v>
+      </c>
+      <c r="M186">
+        <v>43.263396056202403</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B187">
+        <v>500</v>
+      </c>
+      <c r="C187">
+        <v>185</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F187">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G187">
+        <v>2.5994243780584299</v>
+      </c>
+      <c r="H187">
+        <v>1.0051145719789301</v>
+      </c>
+      <c r="I187">
+        <v>11726336.6730875</v>
+      </c>
+      <c r="J187">
+        <v>31.792143939999999</v>
+      </c>
+      <c r="K187">
+        <v>123.2</v>
+      </c>
+      <c r="L187">
+        <v>50</v>
+      </c>
+      <c r="M187">
+        <v>43.404685604759898</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B188">
+        <v>500</v>
+      </c>
+      <c r="C188">
+        <v>186</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F188">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G188">
+        <v>2.58048547786355</v>
+      </c>
+      <c r="H188">
+        <v>1.00098778562646</v>
+      </c>
+      <c r="I188">
+        <v>11678190.8323087</v>
+      </c>
+      <c r="J188">
+        <v>31.972909250000001</v>
+      </c>
+      <c r="K188">
+        <v>123.8</v>
+      </c>
+      <c r="L188">
+        <v>50</v>
+      </c>
+      <c r="M188">
+        <v>43.9084526931927</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B189">
+        <v>500</v>
+      </c>
+      <c r="C189">
+        <v>187</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F189">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G189">
+        <v>2.56728095882732</v>
+      </c>
+      <c r="H189">
+        <v>0.99811052092847297</v>
+      </c>
+      <c r="I189">
+        <v>11644622.744165501</v>
+      </c>
+      <c r="J189">
+        <v>32.153674559999999</v>
+      </c>
+      <c r="K189">
+        <v>124.4</v>
+      </c>
+      <c r="L189">
+        <v>50</v>
+      </c>
+      <c r="M189">
+        <v>44.189630780371402</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B190">
+        <v>500</v>
+      </c>
+      <c r="C190">
+        <v>188</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F190">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G190">
+        <v>2.5620637394213999</v>
+      </c>
+      <c r="H190">
+        <v>0.99697368881992399</v>
+      </c>
+      <c r="I190">
+        <v>11631359.7028991</v>
+      </c>
+      <c r="J190">
+        <v>32.334439879999998</v>
+      </c>
+      <c r="K190">
+        <v>125</v>
+      </c>
+      <c r="L190">
+        <v>50</v>
+      </c>
+      <c r="M190">
+        <v>43.102232293583299</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B191">
+        <v>500</v>
+      </c>
+      <c r="C191">
+        <v>189</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F191">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G191">
+        <v>2.5438526672833399</v>
+      </c>
+      <c r="H191">
+        <v>0.99300549620103995</v>
+      </c>
+      <c r="I191">
+        <v>11585064.122345399</v>
+      </c>
+      <c r="J191">
+        <v>32.515205190000003</v>
+      </c>
+      <c r="K191">
+        <v>125.6</v>
+      </c>
+      <c r="L191">
+        <v>50</v>
+      </c>
+      <c r="M191">
+        <v>43.780821927275298</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B192">
+        <v>500</v>
+      </c>
+      <c r="C192">
+        <v>190</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F192">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G192">
+        <v>2.4534795243249201</v>
+      </c>
+      <c r="H192">
+        <v>0.97331318835040004</v>
+      </c>
+      <c r="I192">
+        <v>11355320.5307546</v>
+      </c>
+      <c r="J192">
+        <v>32.695970500000001</v>
+      </c>
+      <c r="K192">
+        <v>126.2</v>
+      </c>
+      <c r="L192">
+        <v>50</v>
+      </c>
+      <c r="M192">
+        <v>42.6331185368891</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B193">
+        <v>500</v>
+      </c>
+      <c r="C193">
+        <v>191</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F193">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G193">
+        <v>2.4454560258047402</v>
+      </c>
+      <c r="H193">
+        <v>0.97156486802285302</v>
+      </c>
+      <c r="I193">
+        <v>11334923.460266599</v>
+      </c>
+      <c r="J193">
+        <v>32.87673581</v>
+      </c>
+      <c r="K193">
+        <v>126.8</v>
+      </c>
+      <c r="L193">
+        <v>50</v>
+      </c>
+      <c r="M193">
+        <v>44.327552286948702</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B194">
+        <v>500</v>
+      </c>
+      <c r="C194">
+        <v>192</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F194">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G194">
+        <v>2.5248442305891698</v>
+      </c>
+      <c r="H194">
+        <v>0.98886355784538105</v>
+      </c>
+      <c r="I194">
+        <v>11536741.508196101</v>
+      </c>
+      <c r="J194">
+        <v>33.057501119999998</v>
+      </c>
+      <c r="K194">
+        <v>127.4</v>
+      </c>
+      <c r="L194">
+        <v>50</v>
+      </c>
+      <c r="M194">
+        <v>44.001835319492798</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B195">
+        <v>500</v>
+      </c>
+      <c r="C195">
+        <v>193</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F195">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G195">
+        <v>2.5312570536771299</v>
+      </c>
+      <c r="H195">
+        <v>0.990260911996247</v>
+      </c>
+      <c r="I195">
+        <v>11553043.973289501</v>
+      </c>
+      <c r="J195">
+        <v>33.238266430000003</v>
+      </c>
+      <c r="K195">
+        <v>128</v>
+      </c>
+      <c r="L195">
+        <v>50</v>
+      </c>
+      <c r="M195">
+        <v>43.328177891163101</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B196">
+        <v>500</v>
+      </c>
+      <c r="C196">
+        <v>194</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F196">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G196">
+        <v>2.4301077809093101</v>
+      </c>
+      <c r="H196">
+        <v>0.96822048546013995</v>
+      </c>
+      <c r="I196">
+        <v>11295905.663701599</v>
+      </c>
+      <c r="J196">
+        <v>33.419031740000001</v>
+      </c>
+      <c r="K196">
+        <v>128.6</v>
+      </c>
+      <c r="L196">
+        <v>50</v>
+      </c>
+      <c r="M196">
+        <v>45.127486890969998</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B197">
+        <v>500</v>
+      </c>
+      <c r="C197">
+        <v>195</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F197">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G197">
+        <v>2.5075445220220698</v>
+      </c>
+      <c r="H197">
+        <v>0.98509395134861</v>
+      </c>
+      <c r="I197">
+        <v>11492762.7657337</v>
+      </c>
+      <c r="J197">
+        <v>33.599797049999999</v>
+      </c>
+      <c r="K197">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L197">
+        <v>50</v>
+      </c>
+      <c r="M197">
+        <v>42.8895245831688</v>
+      </c>
+      <c r="N197">
+        <v>29365</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B198">
+        <v>500</v>
+      </c>
+      <c r="C198">
+        <v>196</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F198">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G198">
+        <v>2.4903907754645198</v>
+      </c>
+      <c r="H198">
+        <v>0.98135614997371901</v>
+      </c>
+      <c r="I198">
+        <v>11449155.0830267</v>
+      </c>
+      <c r="J198">
+        <v>33.780562369999998</v>
+      </c>
+      <c r="K198">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="L198">
+        <v>50</v>
+      </c>
+      <c r="M198">
+        <v>44.375016526108297</v>
+      </c>
+      <c r="N198">
+        <v>246807</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B199">
+        <v>500</v>
+      </c>
+      <c r="C199">
+        <v>197</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F199">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G199">
+        <v>2.4132129814695902</v>
+      </c>
+      <c r="H199">
+        <v>0.96453910866222503</v>
+      </c>
+      <c r="I199">
+        <v>11252956.2677259</v>
+      </c>
+      <c r="J199">
+        <v>33.961327679999997</v>
+      </c>
+      <c r="K199">
+        <v>130.4</v>
+      </c>
+      <c r="L199">
+        <v>50</v>
+      </c>
+      <c r="M199">
+        <v>43.064031535218</v>
+      </c>
+      <c r="N199">
+        <v>2247368</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B200">
+        <v>500</v>
+      </c>
+      <c r="C200">
+        <v>198</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F200">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G200">
+        <v>2.37403405233484</v>
+      </c>
+      <c r="H200">
+        <v>0.956002020003762</v>
+      </c>
+      <c r="I200">
+        <v>11153356.9000438</v>
+      </c>
+      <c r="J200">
+        <v>34.142092990000002</v>
+      </c>
+      <c r="K200">
+        <v>131</v>
+      </c>
+      <c r="L200">
+        <v>50</v>
+      </c>
+      <c r="M200">
+        <v>43.672373477358697</v>
+      </c>
+      <c r="N200">
+        <v>1503372</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B201">
+        <v>500</v>
+      </c>
+      <c r="C201">
+        <v>199</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F201">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G201">
+        <v>2.38715213256783</v>
+      </c>
+      <c r="H201">
+        <v>0.95886044968653195</v>
+      </c>
+      <c r="I201">
+        <v>11186705.246342801</v>
+      </c>
+      <c r="J201">
+        <v>34.3228583</v>
+      </c>
+      <c r="K201">
+        <v>131.6</v>
+      </c>
+      <c r="L201">
+        <v>50</v>
+      </c>
+      <c r="M201">
+        <v>44.687166487512798</v>
+      </c>
+      <c r="N201">
+        <v>583412</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B202">
+        <v>500</v>
+      </c>
+      <c r="C202">
+        <v>200</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F202">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G202">
+        <v>2.5139453710220501</v>
+      </c>
+      <c r="H202">
+        <v>0.98648869634570402</v>
+      </c>
+      <c r="I202">
+        <v>11509034.7906998</v>
+      </c>
+      <c r="J202">
+        <v>34.503623609999998</v>
+      </c>
+      <c r="K202">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="L202">
+        <v>50</v>
+      </c>
+      <c r="M202">
+        <v>42.663416042447103</v>
+      </c>
+      <c r="N202">
+        <v>1606900</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B203">
+        <v>500</v>
+      </c>
+      <c r="C203">
+        <v>201</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F203">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G203">
+        <v>2.2936782975974701</v>
+      </c>
+      <c r="H203">
+        <v>0.93849250104648996</v>
+      </c>
+      <c r="I203">
+        <v>10949079.1788757</v>
+      </c>
+      <c r="J203">
+        <v>34.684388920000004</v>
+      </c>
+      <c r="K203">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="L203">
+        <v>50</v>
+      </c>
+      <c r="M203">
+        <v>44.445740133939601</v>
+      </c>
+      <c r="N203">
+        <v>521879</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B204">
+        <v>500</v>
+      </c>
+      <c r="C204">
+        <v>202</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F204">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G204">
+        <v>2.2619711815572301</v>
+      </c>
+      <c r="H204">
+        <v>0.93158352046132198</v>
+      </c>
+      <c r="I204">
+        <v>10868474.405382</v>
+      </c>
+      <c r="J204">
+        <v>34.865154230000002</v>
+      </c>
+      <c r="K204">
+        <v>133.4</v>
+      </c>
+      <c r="L204">
+        <v>50</v>
+      </c>
+      <c r="M204">
+        <v>42.6118928186551</v>
+      </c>
+      <c r="N204">
+        <v>802803</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B205">
+        <v>500</v>
+      </c>
+      <c r="C205">
+        <v>203</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F205">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G205">
+        <v>2.3715358494524001</v>
+      </c>
+      <c r="H205">
+        <v>0.95545766159567902</v>
+      </c>
+      <c r="I205">
+        <v>11147006.051949499</v>
+      </c>
+      <c r="J205">
+        <v>35.045919550000001</v>
+      </c>
+      <c r="K205">
+        <v>134</v>
+      </c>
+      <c r="L205">
+        <v>50</v>
+      </c>
+      <c r="M205">
+        <v>44.792514818311403</v>
+      </c>
+      <c r="N205">
+        <v>1077536</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B206">
+        <v>500</v>
+      </c>
+      <c r="C206">
+        <v>204</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F206">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G206">
+        <v>2.2351768843981601</v>
+      </c>
+      <c r="H206">
+        <v>0.92574504311035999</v>
+      </c>
+      <c r="I206">
+        <v>10800358.8362875</v>
+      </c>
+      <c r="J206">
+        <v>35.226684859999999</v>
+      </c>
+      <c r="K206">
+        <v>134.6</v>
+      </c>
+      <c r="L206">
+        <v>50</v>
+      </c>
+      <c r="M206">
+        <v>43.625382804787101</v>
+      </c>
+      <c r="N206">
+        <v>247105</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B207">
+        <v>500</v>
+      </c>
+      <c r="C207">
+        <v>205</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>2.4271844660194102E-2</v>
+      </c>
+      <c r="F207">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G207">
+        <v>2.3505456820499999</v>
+      </c>
+      <c r="H207">
+        <v>0.95088390411869705</v>
+      </c>
+      <c r="I207">
+        <v>11093645.5480514</v>
+      </c>
+      <c r="J207">
+        <v>35.407450169999997</v>
+      </c>
+      <c r="K207">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="L207">
+        <v>50</v>
+      </c>
+      <c r="M207">
+        <v>42.866640025360198</v>
+      </c>
+      <c r="N207">
+        <v>312945</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B208">
+        <v>500</v>
+      </c>
+      <c r="C208">
+        <v>206</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>2.41545893719806E-2</v>
+      </c>
+      <c r="F208">
+        <v>11666666.666666601</v>
+      </c>
+      <c r="G208">
+        <v>1.0182822682589301</v>
+      </c>
+      <c r="H208">
+        <v>0.66058370625362195</v>
+      </c>
+      <c r="I208">
+        <v>7706809.9062922597</v>
+      </c>
+      <c r="J208">
+        <v>35.588215480000002</v>
+      </c>
+      <c r="K208">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="L208">
+        <v>50</v>
+      </c>
+      <c r="M208">
+        <v>44.355792119650701</v>
+      </c>
+      <c r="N208">
+        <v>112734</v>
       </c>
     </row>
   </sheetData>
